--- a/excel/Comparisons.xlsx
+++ b/excel/Comparisons.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="48">
   <si>
     <t>t-Test: Paired Two Sample for Means</t>
   </si>
@@ -165,6 +165,18 @@
   <si>
     <t>rejected=unequal</t>
   </si>
+  <si>
+    <t>cannot be rejected for ~0.2, with P(T&lt;=t) = 0.46 for 0.1906</t>
+  </si>
+  <si>
+    <t>can be rejected for 0.5 with P(T&lt;=t)=0.0014</t>
+  </si>
+  <si>
+    <t>100* P(T&lt;=t)</t>
+  </si>
+  <si>
+    <t>P(T&lt;t)</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -269,6 +281,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1513,6 +1529,473 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T-Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Results for Worst vs Ideal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P(T&lt;=t)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Trend!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Trend!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.796936996891898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.002914091892251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.29790225815043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8700161556894725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4834792138942076E-39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7038-46DA-9DC8-32736B9F28DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="81156696"/>
+        <c:axId val="81155384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81156696"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Database</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Entries</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81155384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81155384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>P(T&lt;t)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81156696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1554,6 +2037,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2625,6 +3148,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2667,7 +3706,7 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>185737</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2684,6 +3723,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9210,10 +10279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9223,9 +10292,10 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="9" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>18</v>
@@ -9247,7 +10317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -9278,8 +10348,14 @@
       <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>100</v>
       </c>
@@ -9319,8 +10395,16 @@
         <f>H3-D3</f>
         <v>0.20333333333333314</v>
       </c>
+      <c r="K3">
+        <f>'T-Test'!A5</f>
+        <v>0.20796936996891896</v>
+      </c>
+      <c r="L3">
+        <f>100*K3</f>
+        <v>20.796936996891898</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1000</v>
       </c>
@@ -9360,8 +10444,16 @@
         <f t="shared" ref="J4:J7" si="2">H4-D4</f>
         <v>0.21000000000000085</v>
       </c>
+      <c r="K4">
+        <f>'T-Test'!A21</f>
+        <v>0.17002914091892252</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="3">100*K4</f>
+        <v>17.002914091892251</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>10000</v>
       </c>
@@ -9401,8 +10493,19 @@
         <f t="shared" si="2"/>
         <v>-3.3333333333342985E-3</v>
       </c>
+      <c r="K5">
+        <f>'T-Test'!A37</f>
+        <v>0.98297902258150427</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>98.29790225815043</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>100000</v>
       </c>
@@ -9442,8 +10545,16 @@
         <f t="shared" si="2"/>
         <v>-0.2466666666666657</v>
       </c>
+      <c r="K6">
+        <f>'T-Test'!A53</f>
+        <v>7.8700161556894729E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>7.8700161556894725</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1000000</v>
       </c>
@@ -9482,6 +10593,17 @@
       <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>-0.19062576257625752</v>
+      </c>
+      <c r="K7">
+        <f>'T-Test'!A69</f>
+        <v>3.4834792138942077E-41</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>3.4834792138942076E-39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -9500,7 +10622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -9901,21 +11023,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD103"/>
+  <dimension ref="A1:AP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50:P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>100</v>
       </c>
@@ -9928,17 +11052,20 @@
       <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AH2" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AM2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>Trend!J3</f>
         <v>0.20333333333333314</v>
@@ -9952,46 +11079,46 @@
       <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="AC3" s="6">
         <v>100</v>
       </c>
-      <c r="R3" s="7">
+      <c r="AD3" s="7">
         <v>1000</v>
       </c>
-      <c r="S3" s="7">
+      <c r="AE3" s="7">
         <v>10000</v>
       </c>
-      <c r="T3" s="7">
+      <c r="AF3" s="7">
         <v>100000</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7">
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="7">
         <v>100</v>
       </c>
-      <c r="W3" s="7">
+      <c r="AI3" s="7">
         <v>1000</v>
       </c>
-      <c r="X3" s="7">
+      <c r="AJ3" s="7">
         <v>10000</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="AK3" s="7">
         <v>100000</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="7">
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="7">
         <v>100</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AN3" s="7">
         <v>1000</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AO3" s="7">
         <v>10000</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AP3" s="7">
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -10013,56 +11140,74 @@
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="M4" s="12"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="AC4">
         <f>'[3]100'!$D2</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="R4">
+      <c r="AD4">
         <f>'[3]1,000'!$D2</f>
         <v>12</v>
       </c>
-      <c r="S4">
+      <c r="AE4">
         <f>'[3]10,000'!$D2</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="T4">
+      <c r="AF4">
         <f>'[3]100,000'!$E2</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="V4">
+      <c r="AH4">
         <f>'[2]100'!$D2</f>
         <v>11.333333333333334</v>
       </c>
-      <c r="W4">
+      <c r="AI4">
         <f>'[2]1,000'!$D2</f>
         <v>12.333333333333334</v>
       </c>
-      <c r="X4">
+      <c r="AJ4">
         <f>'[2]10,000'!$D2</f>
         <v>11</v>
       </c>
-      <c r="Y4">
+      <c r="AK4">
         <f>'[2]100,000'!$E2</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="AA4">
+      <c r="AM4">
         <f>'[1]100'!$D2</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="AB4">
+      <c r="AN4">
         <f>'[1]1,000'!$D2</f>
         <v>10.333333333333334</v>
       </c>
-      <c r="AC4">
+      <c r="AO4">
         <f>'[1]10,000'!$D2</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="AD4">
+      <c r="AP4">
         <f>'[1]100,000'!$E2</f>
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>C14</f>
+        <v>0.20796936996891896</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -10090,56 +11235,72 @@
       <c r="L5" s="1">
         <v>3.4433333333333342</v>
       </c>
-      <c r="Q5">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.4433333333333342</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.2400000000000011</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="AC5">
         <f>'[3]100'!$D3</f>
         <v>7</v>
       </c>
-      <c r="R5">
+      <c r="AD5">
         <f>'[3]1,000'!$D3</f>
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="AE5">
         <f>'[3]10,000'!$D3</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T5">
+      <c r="AF5">
         <f>'[3]100,000'!$E3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V5">
+      <c r="AH5">
         <f>'[2]100'!$D3</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W5">
+      <c r="AI5">
         <f>'[2]1,000'!$D3</f>
         <v>3</v>
       </c>
-      <c r="X5">
+      <c r="AJ5">
         <f>'[2]10,000'!$D3</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y5">
+      <c r="AK5">
         <f>'[2]100,000'!$E3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA5">
+      <c r="AM5">
         <f>'[1]100'!$D3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB5">
+      <c r="AN5">
         <f>'[1]1,000'!$D3</f>
         <v>3</v>
       </c>
-      <c r="AC5">
+      <c r="AO5">
         <f>'[1]10,000'!$D3</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD5">
+      <c r="AP5">
         <f>'[1]100,000'!$E3</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -10167,56 +11328,72 @@
       <c r="L6" s="1">
         <v>1.5422109988776471</v>
       </c>
-      <c r="Q6">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.5422109988776471</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.0484399551066046</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="AC6">
         <f>'[3]100'!$D4</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R6">
+      <c r="AD6">
         <f>'[3]1,000'!$D4</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S6">
+      <c r="AE6">
         <f>'[3]10,000'!$D4</f>
         <v>3</v>
       </c>
-      <c r="T6">
+      <c r="AF6">
         <f>'[3]100,000'!$E4</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V6">
+      <c r="AH6">
         <f>'[2]100'!$D4</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W6">
+      <c r="AI6">
         <f>'[2]1,000'!$D4</f>
         <v>3</v>
       </c>
-      <c r="X6">
+      <c r="AJ6">
         <f>'[2]10,000'!$D4</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y6">
+      <c r="AK6">
         <f>'[2]100,000'!$E4</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA6">
+      <c r="AM6">
         <f>'[1]100'!$D4</f>
         <v>3</v>
       </c>
-      <c r="AB6">
+      <c r="AN6">
         <f>'[1]1,000'!$D4</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC6">
+      <c r="AO6">
         <f>'[1]10,000'!$D4</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD6">
+      <c r="AP6">
         <f>'[1]100,000'!$E4</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -10244,56 +11421,72 @@
       <c r="L7" s="1">
         <v>100</v>
       </c>
-      <c r="Q7">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>100</v>
+      </c>
+      <c r="P7" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="AC7">
         <f>'[3]100'!$D5</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R7">
+      <c r="AD7">
         <f>'[3]1,000'!$D5</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S7">
+      <c r="AE7">
         <f>'[3]10,000'!$D5</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T7">
+      <c r="AF7">
         <f>'[3]100,000'!$E5</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V7">
+      <c r="AH7">
         <f>'[2]100'!$D5</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="W7">
+      <c r="AI7">
         <f>'[2]1,000'!$D5</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X7">
+      <c r="AJ7">
         <f>'[2]10,000'!$D5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y7">
+      <c r="AK7">
         <f>'[2]100,000'!$E5</f>
         <v>4</v>
       </c>
-      <c r="AA7">
+      <c r="AM7">
         <f>'[1]100'!$D5</f>
         <v>3</v>
       </c>
-      <c r="AB7">
+      <c r="AN7">
         <f>'[1]1,000'!$D5</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC7">
+      <c r="AO7">
         <f>'[1]10,000'!$D5</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD7">
+      <c r="AP7">
         <f>'[1]100,000'!$E5</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -10317,56 +11510,70 @@
       <c r="L8" s="1">
         <v>99</v>
       </c>
-      <c r="Q8">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.2953254769921259</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="AC8">
         <f>'[3]100'!$D6</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R8">
+      <c r="AD8">
         <f>'[3]1,000'!$D6</f>
         <v>3</v>
       </c>
-      <c r="S8">
+      <c r="AE8">
         <f>'[3]10,000'!$D6</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T8">
+      <c r="AF8">
         <f>'[3]100,000'!$E6</f>
         <v>3</v>
       </c>
-      <c r="V8">
+      <c r="AH8">
         <f>'[2]100'!$D6</f>
         <v>3</v>
       </c>
-      <c r="W8">
+      <c r="AI8">
         <f>'[2]1,000'!$D6</f>
         <v>3</v>
       </c>
-      <c r="X8">
+      <c r="AJ8">
         <f>'[2]10,000'!$D6</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y8">
+      <c r="AK8">
         <f>'[2]100,000'!$E6</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA8">
+      <c r="AM8">
         <f>'[1]100'!$D6</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB8">
+      <c r="AN8">
         <f>'[1]1,000'!$D6</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC8">
+      <c r="AO8">
         <f>'[1]10,000'!$D6</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD8">
+      <c r="AP8">
         <f>'[1]100,000'!$E6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10388,56 +11595,70 @@
         <v>0.67982912576139887</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="Q9">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="AC9">
         <f>'[3]100'!$D7</f>
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="AD9">
         <f>'[3]1,000'!$D7</f>
         <v>4</v>
       </c>
-      <c r="S9">
+      <c r="AE9">
         <f>'[3]10,000'!$D7</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T9">
+      <c r="AF9">
         <f>'[3]100,000'!$E7</f>
         <v>3</v>
       </c>
-      <c r="V9">
+      <c r="AH9">
         <f>'[2]100'!$D7</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W9">
+      <c r="AI9">
         <f>'[2]1,000'!$D7</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X9">
+      <c r="AJ9">
         <f>'[2]10,000'!$D7</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y9">
+      <c r="AK9">
         <f>'[2]100,000'!$E7</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA9">
+      <c r="AM9">
         <f>'[1]100'!$D7</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB9">
+      <c r="AN9">
         <f>'[1]1,000'!$D7</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC9">
+      <c r="AO9">
         <f>'[1]10,000'!$D7</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD9">
+      <c r="AP9">
         <f>'[1]100,000'!$E7</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -10459,56 +11680,70 @@
         <v>2.8119614786172087E-2</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="Q10">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>198</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="AC10">
         <f>'[3]100'!$D8</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R10">
+      <c r="AD10">
         <f>'[3]1,000'!$D8</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="S10">
+      <c r="AE10">
         <f>'[3]10,000'!$D8</f>
         <v>5</v>
       </c>
-      <c r="T10">
+      <c r="AF10">
         <f>'[3]100,000'!$E8</f>
         <v>3</v>
       </c>
-      <c r="V10">
+      <c r="AH10">
         <f>'[2]100'!$D8</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W10">
+      <c r="AI10">
         <f>'[2]1,000'!$D8</f>
         <v>3</v>
       </c>
-      <c r="X10">
+      <c r="AJ10">
         <f>'[2]10,000'!$D8</f>
         <v>4</v>
       </c>
-      <c r="Y10">
+      <c r="AK10">
         <f>'[2]100,000'!$E8</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AA10">
+      <c r="AM10">
         <f>'[1]100'!$D8</f>
         <v>4</v>
       </c>
-      <c r="AB10">
+      <c r="AN10">
         <f>'[1]1,000'!$D8</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC10">
+      <c r="AO10">
         <f>'[1]10,000'!$D8</f>
         <v>3</v>
       </c>
-      <c r="AD10">
+      <c r="AP10">
         <f>'[1]100,000'!$E8</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -10530,56 +11765,70 @@
         <v>0.7173285927924351</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="Q11">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7.9111142518556152E-2</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="AC11">
         <f>'[3]100'!$D9</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R11">
+      <c r="AD11">
         <f>'[3]1,000'!$D9</f>
         <v>4</v>
       </c>
-      <c r="S11">
+      <c r="AE11">
         <f>'[3]10,000'!$D9</f>
         <v>4</v>
       </c>
-      <c r="T11">
+      <c r="AF11">
         <f>'[3]100,000'!$E9</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V11">
+      <c r="AH11">
         <f>'[2]100'!$D9</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W11">
+      <c r="AI11">
         <f>'[2]1,000'!$D9</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X11">
+      <c r="AJ11">
         <f>'[2]10,000'!$D9</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y11">
+      <c r="AK11">
         <f>'[2]100,000'!$E9</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA11">
+      <c r="AM11">
         <f>'[1]100'!$D9</f>
         <v>4</v>
       </c>
-      <c r="AB11">
+      <c r="AN11">
         <f>'[1]1,000'!$D9</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC11">
+      <c r="AO11">
         <f>'[1]10,000'!$D9</f>
         <v>3</v>
       </c>
-      <c r="AD11">
+      <c r="AP11">
         <f>'[1]100,000'!$E9</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -10594,56 +11843,63 @@
         <v>1.6528705472303915</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="Q12">
+      <c r="N12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.46851205850651068</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="AC12">
         <f>'[3]100'!$D10</f>
         <v>3</v>
       </c>
-      <c r="R12">
+      <c r="AD12">
         <f>'[3]1,000'!$D10</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S12">
+      <c r="AE12">
         <f>'[3]10,000'!$D10</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T12">
+      <c r="AF12">
         <f>'[3]100,000'!$E10</f>
         <v>2</v>
       </c>
-      <c r="V12">
+      <c r="AH12">
         <f>'[2]100'!$D10</f>
         <v>3</v>
       </c>
-      <c r="W12">
+      <c r="AI12">
         <f>'[2]1,000'!$D10</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X12">
+      <c r="AJ12">
         <f>'[2]10,000'!$D10</f>
         <v>4</v>
       </c>
-      <c r="Y12">
+      <c r="AK12">
         <f>'[2]100,000'!$E10</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA12">
+      <c r="AM12">
         <f>'[1]100'!$D10</f>
         <v>4</v>
       </c>
-      <c r="AB12">
+      <c r="AN12">
         <f>'[1]1,000'!$D10</f>
         <v>3</v>
       </c>
-      <c r="AC12">
+      <c r="AO12">
         <f>'[1]10,000'!$D10</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD12">
+      <c r="AP12">
         <f>'[1]100,000'!$E10</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -10658,56 +11914,63 @@
         <v>0.20802373652106465</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="Q13">
+      <c r="N13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.6525857836178461</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="AC13">
         <f>'[3]100'!$D11</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R13">
+      <c r="AD13">
         <f>'[3]1,000'!$D11</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S13">
+      <c r="AE13">
         <f>'[3]10,000'!$D11</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T13">
+      <c r="AF13">
         <f>'[3]100,000'!$E11</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V13">
+      <c r="AH13">
         <f>'[2]100'!$D11</f>
         <v>3</v>
       </c>
-      <c r="W13">
+      <c r="AI13">
         <f>'[2]1,000'!$D11</f>
         <v>3</v>
       </c>
-      <c r="X13">
+      <c r="AJ13">
         <f>'[2]10,000'!$D11</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y13">
+      <c r="AK13">
         <f>'[2]100,000'!$E11</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA13">
+      <c r="AM13">
         <f>'[1]100'!$D11</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB13">
+      <c r="AN13">
         <f>'[1]1,000'!$D11</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC13">
+      <c r="AO13">
         <f>'[1]10,000'!$D11</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD13">
+      <c r="AP13">
         <f>'[1]100,000'!$E11</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -10722,56 +11985,63 @@
         <v>1.9724619897672133</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="Q14">
+      <c r="N14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.93702411701302135</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="AC14">
         <f>'[3]100'!$D12</f>
         <v>3</v>
       </c>
-      <c r="R14">
+      <c r="AD14">
         <f>'[3]1,000'!$D12</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S14">
+      <c r="AE14">
         <f>'[3]10,000'!$D12</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T14">
+      <c r="AF14">
         <f>'[3]100,000'!$E12</f>
         <v>3</v>
       </c>
-      <c r="V14">
+      <c r="AH14">
         <f>'[2]100'!$D12</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W14">
+      <c r="AI14">
         <f>'[2]1,000'!$D12</f>
         <v>3</v>
       </c>
-      <c r="X14">
+      <c r="AJ14">
         <f>'[2]10,000'!$D12</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y14">
+      <c r="AK14">
         <f>'[2]100,000'!$E12</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA14">
+      <c r="AM14">
         <f>'[1]100'!$D12</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB14">
+      <c r="AN14">
         <f>'[1]1,000'!$D12</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC14">
+      <c r="AO14">
         <f>'[1]10,000'!$D12</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD14">
+      <c r="AP14">
         <f>'[1]100,000'!$E12</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -10779,156 +12049,163 @@
         <v>1.9720174778363073</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="Q15">
+      <c r="N15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.9720174778363073</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="AC15">
         <f>'[3]100'!$D13</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R15">
+      <c r="AD15">
         <f>'[3]1,000'!$D13</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S15">
+      <c r="AE15">
         <f>'[3]10,000'!$D13</f>
         <v>3</v>
       </c>
-      <c r="T15">
+      <c r="AF15">
         <f>'[3]100,000'!$E13</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V15">
+      <c r="AH15">
         <f>'[2]100'!$D13</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W15">
+      <c r="AI15">
         <f>'[2]1,000'!$D13</f>
         <v>3</v>
       </c>
-      <c r="X15">
+      <c r="AJ15">
         <f>'[2]10,000'!$D13</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y15">
+      <c r="AK15">
         <f>'[2]100,000'!$E13</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA15">
+      <c r="AM15">
         <f>'[1]100'!$D13</f>
         <v>4</v>
       </c>
-      <c r="AB15">
+      <c r="AN15">
         <f>'[1]1,000'!$D13</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC15">
+      <c r="AO15">
         <f>'[1]10,000'!$D13</f>
         <v>3</v>
       </c>
-      <c r="AD15">
+      <c r="AP15">
         <f>'[1]100,000'!$E13</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q16">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC16">
         <f>'[3]100'!$D14</f>
         <v>3</v>
       </c>
-      <c r="R16">
+      <c r="AD16">
         <f>'[3]1,000'!$D14</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="S16">
+      <c r="AE16">
         <f>'[3]10,000'!$D14</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T16">
+      <c r="AF16">
         <f>'[3]100,000'!$E14</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V16">
+      <c r="AH16">
         <f>'[2]100'!$D14</f>
         <v>3</v>
       </c>
-      <c r="W16">
+      <c r="AI16">
         <f>'[2]1,000'!$D14</f>
         <v>3</v>
       </c>
-      <c r="X16">
+      <c r="AJ16">
         <f>'[2]10,000'!$D14</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y16">
+      <c r="AK16">
         <f>'[2]100,000'!$E14</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA16">
+      <c r="AM16">
         <f>'[1]100'!$D14</f>
         <v>3</v>
       </c>
-      <c r="AB16">
+      <c r="AN16">
         <f>'[1]1,000'!$D14</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC16">
+      <c r="AO16">
         <f>'[1]10,000'!$D14</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD16">
+      <c r="AP16">
         <f>'[1]100,000'!$E14</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q17">
+    <row r="17" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC17">
         <f>'[3]100'!$D15</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R17">
+      <c r="AD17">
         <f>'[3]1,000'!$D15</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S17">
+      <c r="AE17">
         <f>'[3]10,000'!$D15</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T17">
+      <c r="AF17">
         <f>'[3]100,000'!$E15</f>
         <v>3</v>
       </c>
-      <c r="V17">
+      <c r="AH17">
         <f>'[2]100'!$D15</f>
         <v>3</v>
       </c>
-      <c r="W17">
+      <c r="AI17">
         <f>'[2]1,000'!$D15</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X17">
+      <c r="AJ17">
         <f>'[2]10,000'!$D15</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y17">
+      <c r="AK17">
         <f>'[2]100,000'!$E15</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA17">
+      <c r="AM17">
         <f>'[1]100'!$D15</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB17">
+      <c r="AN17">
         <f>'[1]1,000'!$D15</f>
         <v>3</v>
       </c>
-      <c r="AC17">
+      <c r="AO17">
         <f>'[1]10,000'!$D15</f>
         <v>4</v>
       </c>
-      <c r="AD17">
+      <c r="AP17">
         <f>'[1]100,000'!$E15</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1000</v>
       </c>
@@ -10941,56 +12218,59 @@
       <c r="J18" t="s">
         <v>29</v>
       </c>
-      <c r="Q18">
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18">
         <f>'[3]100'!$D16</f>
         <v>3</v>
       </c>
-      <c r="R18">
+      <c r="AD18">
         <f>'[3]1,000'!$D16</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S18">
+      <c r="AE18">
         <f>'[3]10,000'!$D16</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T18">
+      <c r="AF18">
         <f>'[3]100,000'!$E16</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V18">
+      <c r="AH18">
         <f>'[2]100'!$D16</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W18">
+      <c r="AI18">
         <f>'[2]1,000'!$D16</f>
         <v>3</v>
       </c>
-      <c r="X18">
+      <c r="AJ18">
         <f>'[2]10,000'!$D16</f>
         <v>4</v>
       </c>
-      <c r="Y18">
+      <c r="AK18">
         <f>'[2]100,000'!$E16</f>
         <v>4</v>
       </c>
-      <c r="AA18">
+      <c r="AM18">
         <f>'[1]100'!$D16</f>
         <v>3</v>
       </c>
-      <c r="AB18">
+      <c r="AN18">
         <f>'[1]1,000'!$D16</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC18">
+      <c r="AO18">
         <f>'[1]10,000'!$D16</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD18">
+      <c r="AP18">
         <f>'[1]100,000'!$E16</f>
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>Trend!J4</f>
         <v>0.21000000000000085</v>
@@ -11004,56 +12284,56 @@
       <c r="J19" t="s">
         <v>40</v>
       </c>
-      <c r="Q19">
+      <c r="AC19">
         <f>'[3]100'!$D17</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R19">
+      <c r="AD19">
         <f>'[3]1,000'!$D17</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S19">
+      <c r="AE19">
         <f>'[3]10,000'!$D17</f>
         <v>4</v>
       </c>
-      <c r="T19">
+      <c r="AF19">
         <f>'[3]100,000'!$E17</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V19">
+      <c r="AH19">
         <f>'[2]100'!$D17</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="W19">
+      <c r="AI19">
         <f>'[2]1,000'!$D17</f>
         <v>3</v>
       </c>
-      <c r="X19">
+      <c r="AJ19">
         <f>'[2]10,000'!$D17</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y19">
+      <c r="AK19">
         <f>'[2]100,000'!$E17</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA19">
+      <c r="AM19">
         <f>'[1]100'!$D17</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB19">
+      <c r="AN19">
         <f>'[1]1,000'!$D17</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC19">
+      <c r="AO19">
         <f>'[1]10,000'!$D17</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD19">
+      <c r="AP19">
         <f>'[1]100,000'!$E17</f>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>14</v>
@@ -11075,56 +12355,74 @@
       <c r="L20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q20">
+      <c r="M20" s="12"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="AC20">
         <f>'[3]100'!$D18</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="R20">
+      <c r="AD20">
         <f>'[3]1,000'!$D18</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="S20">
+      <c r="AE20">
         <f>'[3]10,000'!$D18</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="T20">
+      <c r="AF20">
         <f>'[3]100,000'!$E18</f>
         <v>6</v>
       </c>
-      <c r="V20">
+      <c r="AH20">
         <f>'[2]100'!$D18</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="W20">
+      <c r="AI20">
         <f>'[2]1,000'!$D18</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="X20">
+      <c r="AJ20">
         <f>'[2]10,000'!$D18</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="Y20">
+      <c r="AK20">
         <f>'[2]100,000'!$E18</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="AA20">
+      <c r="AM20">
         <f>'[1]100'!$D18</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="AB20">
+      <c r="AN20">
         <f>'[1]1,000'!$D18</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="AC20">
+      <c r="AO20">
         <f>'[1]10,000'!$D18</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="AD20">
+      <c r="AP20">
         <f>'[1]100,000'!$E18</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>C30</f>
+        <v>0.17002914091892252</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -11152,56 +12450,72 @@
       <c r="L21" s="1">
         <v>3.05</v>
       </c>
-      <c r="Q21">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3.2600000000000007</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="AC21">
         <f>'[3]100'!$D19</f>
         <v>3</v>
       </c>
-      <c r="R21">
+      <c r="AD21">
         <f>'[3]1,000'!$D19</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S21">
+      <c r="AE21">
         <f>'[3]10,000'!$D19</f>
         <v>3</v>
       </c>
-      <c r="T21">
+      <c r="AF21">
         <f>'[3]100,000'!$E19</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V21">
+      <c r="AH21">
         <f>'[2]100'!$D19</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W21">
+      <c r="AI21">
         <f>'[2]1,000'!$D19</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="X21">
+      <c r="AJ21">
         <f>'[2]10,000'!$D19</f>
         <v>3</v>
       </c>
-      <c r="Y21">
+      <c r="AK21">
         <f>'[2]100,000'!$E19</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA21">
+      <c r="AM21">
         <f>'[1]100'!$D19</f>
         <v>2</v>
       </c>
-      <c r="AB21">
+      <c r="AN21">
         <f>'[1]1,000'!$D19</f>
         <v>3</v>
       </c>
-      <c r="AC21">
+      <c r="AO21">
         <f>'[1]10,000'!$D19</f>
         <v>4</v>
       </c>
-      <c r="AD21">
+      <c r="AP21">
         <f>'[1]100,000'!$E19</f>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -11229,56 +12543,72 @@
       <c r="L22" s="1">
         <v>1.1366442199775468</v>
       </c>
-      <c r="Q22">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.1887317620650808</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.1366442199775468</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="AC22">
         <f>'[3]100'!$D20</f>
         <v>2</v>
       </c>
-      <c r="R22">
+      <c r="AD22">
         <f>'[3]1,000'!$D20</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="S22">
+      <c r="AE22">
         <f>'[3]10,000'!$D20</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T22">
+      <c r="AF22">
         <f>'[3]100,000'!$E20</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V22">
+      <c r="AH22">
         <f>'[2]100'!$D20</f>
         <v>4</v>
       </c>
-      <c r="W22">
+      <c r="AI22">
         <f>'[2]1,000'!$D20</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X22">
+      <c r="AJ22">
         <f>'[2]10,000'!$D20</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y22">
+      <c r="AK22">
         <f>'[2]100,000'!$E20</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA22">
+      <c r="AM22">
         <f>'[1]100'!$D20</f>
         <v>3</v>
       </c>
-      <c r="AB22">
+      <c r="AN22">
         <f>'[1]1,000'!$D20</f>
         <v>4</v>
       </c>
-      <c r="AC22">
+      <c r="AO22">
         <f>'[1]10,000'!$D20</f>
         <v>4</v>
       </c>
-      <c r="AD22">
+      <c r="AP22">
         <f>'[1]100,000'!$E20</f>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -11306,56 +12636,72 @@
       <c r="L23" s="1">
         <v>100</v>
       </c>
-      <c r="Q23">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1">
+        <v>100</v>
+      </c>
+      <c r="P23" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="AC23">
         <f>'[3]100'!$D21</f>
         <v>2</v>
       </c>
-      <c r="R23">
+      <c r="AD23">
         <f>'[3]1,000'!$D21</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="S23">
+      <c r="AE23">
         <f>'[3]10,000'!$D21</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T23">
+      <c r="AF23">
         <f>'[3]100,000'!$E21</f>
         <v>3</v>
       </c>
-      <c r="V23">
+      <c r="AH23">
         <f>'[2]100'!$D21</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W23">
+      <c r="AI23">
         <f>'[2]1,000'!$D21</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X23">
+      <c r="AJ23">
         <f>'[2]10,000'!$D21</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y23">
+      <c r="AK23">
         <f>'[2]100,000'!$E21</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA23">
+      <c r="AM23">
         <f>'[1]100'!$D21</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB23">
+      <c r="AN23">
         <f>'[1]1,000'!$D21</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC23">
+      <c r="AO23">
         <f>'[1]10,000'!$D21</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD23">
+      <c r="AP23">
         <f>'[1]100,000'!$E21</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
@@ -11379,56 +12725,70 @@
       <c r="L24" s="1">
         <v>99</v>
       </c>
-      <c r="Q24">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.1626879910213137</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="AC24">
         <f>'[3]100'!$D22</f>
         <v>4</v>
       </c>
-      <c r="R24">
+      <c r="AD24">
         <f>'[3]1,000'!$D22</f>
         <v>3</v>
       </c>
-      <c r="S24">
+      <c r="AE24">
         <f>'[3]10,000'!$D22</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T24">
+      <c r="AF24">
         <f>'[3]100,000'!$E22</f>
         <v>3</v>
       </c>
-      <c r="V24">
+      <c r="AH24">
         <f>'[2]100'!$D22</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W24">
+      <c r="AI24">
         <f>'[2]1,000'!$D22</f>
         <v>3</v>
       </c>
-      <c r="X24">
+      <c r="AJ24">
         <f>'[2]10,000'!$D22</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y24">
+      <c r="AK24">
         <f>'[2]100,000'!$E22</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA24">
+      <c r="AM24">
         <f>'[1]100'!$D22</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AB24">
+      <c r="AN24">
         <f>'[1]1,000'!$D22</f>
         <v>3</v>
       </c>
-      <c r="AC24">
+      <c r="AO24">
         <f>'[1]10,000'!$D22</f>
         <v>4</v>
       </c>
-      <c r="AD24">
+      <c r="AP24">
         <f>'[1]100,000'!$E22</f>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -11450,56 +12810,70 @@
         <v>1.0458257220439329</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="Q25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="AC25">
         <f>'[3]100'!$D23</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R25">
+      <c r="AD25">
         <f>'[3]1,000'!$D23</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S25">
+      <c r="AE25">
         <f>'[3]10,000'!$D23</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T25">
+      <c r="AF25">
         <f>'[3]100,000'!$E23</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V25">
+      <c r="AH25">
         <f>'[2]100'!$D23</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="W25">
+      <c r="AI25">
         <f>'[2]1,000'!$D23</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X25">
+      <c r="AJ25">
         <f>'[2]10,000'!$D23</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y25">
+      <c r="AK25">
         <f>'[2]100,000'!$E23</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA25">
+      <c r="AM25">
         <f>'[1]100'!$D23</f>
         <v>3</v>
       </c>
-      <c r="AB25">
+      <c r="AN25">
         <f>'[1]1,000'!$D23</f>
         <v>3</v>
       </c>
-      <c r="AC25">
+      <c r="AO25">
         <f>'[1]10,000'!$D23</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD25">
+      <c r="AP25">
         <f>'[1]100,000'!$E23</f>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -11521,56 +12895,70 @@
         <v>0.41202490142680154</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="Q26">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="1">
+        <v>198</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="AC26">
         <f>'[3]100'!$D24</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R26">
+      <c r="AD26">
         <f>'[3]1,000'!$D24</f>
         <v>3</v>
       </c>
-      <c r="S26">
+      <c r="AE26">
         <f>'[3]10,000'!$D24</f>
         <v>3</v>
       </c>
-      <c r="T26">
+      <c r="AF26">
         <f>'[3]100,000'!$E24</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V26">
+      <c r="AH26">
         <f>'[2]100'!$D24</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="W26">
+      <c r="AI26">
         <f>'[2]1,000'!$D24</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X26">
+      <c r="AJ26">
         <f>'[2]10,000'!$D24</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y26">
+      <c r="AK26">
         <f>'[2]100,000'!$E24</f>
         <v>4</v>
       </c>
-      <c r="AA26">
+      <c r="AM26">
         <f>'[1]100'!$D24</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="AB26">
+      <c r="AN26">
         <f>'[1]1,000'!$D24</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC26">
+      <c r="AO26">
         <f>'[1]10,000'!$D24</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD26">
+      <c r="AP26">
         <f>'[1]100,000'!$E24</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -11592,56 +12980,70 @@
         <v>1.3940612573481483</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="Q27">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-1.9017411621343077</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="AC27">
         <f>'[3]100'!$D25</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R27">
+      <c r="AD27">
         <f>'[3]1,000'!$D25</f>
         <v>3</v>
       </c>
-      <c r="S27">
+      <c r="AE27">
         <f>'[3]10,000'!$D25</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T27">
+      <c r="AF27">
         <f>'[3]100,000'!$E25</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="V27">
+      <c r="AH27">
         <f>'[2]100'!$D25</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W27">
+      <c r="AI27">
         <f>'[2]1,000'!$D25</f>
         <v>3</v>
       </c>
-      <c r="X27">
+      <c r="AJ27">
         <f>'[2]10,000'!$D25</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y27">
+      <c r="AK27">
         <f>'[2]100,000'!$E25</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA27">
+      <c r="AM27">
         <f>'[1]100'!$D25</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB27">
+      <c r="AN27">
         <f>'[1]1,000'!$D25</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC27">
+      <c r="AO27">
         <f>'[1]10,000'!$D25</f>
         <v>4</v>
       </c>
-      <c r="AD27">
+      <c r="AP27">
         <f>'[1]100,000'!$E25</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
@@ -11656,56 +13058,63 @@
         <v>1.6525857836178461</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="Q28">
+      <c r="N28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2.9328417897701235E-2</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="AC28">
         <f>'[3]100'!$D26</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R28">
+      <c r="AD28">
         <f>'[3]1,000'!$D26</f>
         <v>3</v>
       </c>
-      <c r="S28">
+      <c r="AE28">
         <f>'[3]10,000'!$D26</f>
         <v>3</v>
       </c>
-      <c r="T28">
+      <c r="AF28">
         <f>'[3]100,000'!$E26</f>
         <v>3</v>
       </c>
-      <c r="V28">
+      <c r="AH28">
         <f>'[2]100'!$D26</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W28">
+      <c r="AI28">
         <f>'[2]1,000'!$D26</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X28">
+      <c r="AJ28">
         <f>'[2]10,000'!$D26</f>
         <v>4</v>
       </c>
-      <c r="Y28">
+      <c r="AK28">
         <f>'[2]100,000'!$E26</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA28">
+      <c r="AM28">
         <f>'[1]100'!$D26</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB28">
+      <c r="AN28">
         <f>'[1]1,000'!$D26</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC28">
+      <c r="AO28">
         <f>'[1]10,000'!$D26</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD28">
+      <c r="AP28">
         <f>'[1]100,000'!$E26</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
@@ -11720,56 +13129,63 @@
         <v>0.17002914091892252</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="Q29">
+      <c r="N29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.6525857836178461</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="AC29">
         <f>'[3]100'!$D27</f>
         <v>3</v>
       </c>
-      <c r="R29">
+      <c r="AD29">
         <f>'[3]1,000'!$D27</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="S29">
+      <c r="AE29">
         <f>'[3]10,000'!$D27</f>
         <v>3</v>
       </c>
-      <c r="T29">
+      <c r="AF29">
         <f>'[3]100,000'!$E27</f>
         <v>3</v>
       </c>
-      <c r="V29">
+      <c r="AH29">
         <f>'[2]100'!$D27</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W29">
+      <c r="AI29">
         <f>'[2]1,000'!$D27</f>
         <v>3</v>
       </c>
-      <c r="X29">
+      <c r="AJ29">
         <f>'[2]10,000'!$D27</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y29">
+      <c r="AK29">
         <f>'[2]100,000'!$E27</f>
         <v>3</v>
       </c>
-      <c r="AA29">
+      <c r="AM29">
         <f>'[1]100'!$D27</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB29">
+      <c r="AN29">
         <f>'[1]1,000'!$D27</f>
         <v>3</v>
       </c>
-      <c r="AC29">
+      <c r="AO29">
         <f>'[1]10,000'!$D27</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD29">
+      <c r="AP29">
         <f>'[1]100,000'!$E27</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -11784,56 +13200,63 @@
         <v>1.9720174778363073</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="Q30">
+      <c r="N30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5.8656835795402471E-2</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="AC30">
         <f>'[3]100'!$D28</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R30">
+      <c r="AD30">
         <f>'[3]1,000'!$D28</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S30">
+      <c r="AE30">
         <f>'[3]10,000'!$D28</f>
         <v>3</v>
       </c>
-      <c r="T30">
+      <c r="AF30">
         <f>'[3]100,000'!$E28</f>
         <v>3</v>
       </c>
-      <c r="V30">
+      <c r="AH30">
         <f>'[2]100'!$D28</f>
         <v>3</v>
       </c>
-      <c r="W30">
+      <c r="AI30">
         <f>'[2]1,000'!$D28</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="X30">
+      <c r="AJ30">
         <f>'[2]10,000'!$D28</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y30">
+      <c r="AK30">
         <f>'[2]100,000'!$E28</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA30">
+      <c r="AM30">
         <f>'[1]100'!$D28</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AB30">
+      <c r="AN30">
         <f>'[1]1,000'!$D28</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC30">
+      <c r="AO30">
         <f>'[1]10,000'!$D28</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD30">
+      <c r="AP30">
         <f>'[1]100,000'!$E28</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -11841,156 +13264,163 @@
         <v>1.9720174778363073</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="Q31">
+      <c r="N31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1.9720174778363073</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="AC31">
         <f>'[3]100'!$D29</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="R31">
+      <c r="AD31">
         <f>'[3]1,000'!$D29</f>
         <v>3</v>
       </c>
-      <c r="S31">
+      <c r="AE31">
         <f>'[3]10,000'!$D29</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T31">
+      <c r="AF31">
         <f>'[3]100,000'!$E29</f>
         <v>3</v>
       </c>
-      <c r="V31">
+      <c r="AH31">
         <f>'[2]100'!$D29</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W31">
+      <c r="AI31">
         <f>'[2]1,000'!$D29</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X31">
+      <c r="AJ31">
         <f>'[2]10,000'!$D29</f>
         <v>3</v>
       </c>
-      <c r="Y31">
+      <c r="AK31">
         <f>'[2]100,000'!$E29</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA31">
+      <c r="AM31">
         <f>'[1]100'!$D29</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AB31">
+      <c r="AN31">
         <f>'[1]1,000'!$D29</f>
         <v>3</v>
       </c>
-      <c r="AC31">
+      <c r="AO31">
         <f>'[1]10,000'!$D29</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD31">
+      <c r="AP31">
         <f>'[1]100,000'!$E29</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q32">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC32">
         <f>'[3]100'!$D30</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R32">
+      <c r="AD32">
         <f>'[3]1,000'!$D30</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S32">
+      <c r="AE32">
         <f>'[3]10,000'!$D30</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T32">
+      <c r="AF32">
         <f>'[3]100,000'!$E30</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V32">
+      <c r="AH32">
         <f>'[2]100'!$D30</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W32">
+      <c r="AI32">
         <f>'[2]1,000'!$D30</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X32">
+      <c r="AJ32">
         <f>'[2]10,000'!$D30</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y32">
+      <c r="AK32">
         <f>'[2]100,000'!$E30</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA32">
+      <c r="AM32">
         <f>'[1]100'!$D30</f>
         <v>3</v>
       </c>
-      <c r="AB32">
+      <c r="AN32">
         <f>'[1]1,000'!$D30</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC32">
+      <c r="AO32">
         <f>'[1]10,000'!$D30</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD32">
+      <c r="AP32">
         <f>'[1]100,000'!$E30</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q33">
+    <row r="33" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC33">
         <f>'[3]100'!$D31</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="R33">
+      <c r="AD33">
         <f>'[3]1,000'!$D31</f>
         <v>3</v>
       </c>
-      <c r="S33">
+      <c r="AE33">
         <f>'[3]10,000'!$D31</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T33">
+      <c r="AF33">
         <f>'[3]100,000'!$E31</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V33">
+      <c r="AH33">
         <f>'[2]100'!$D31</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W33">
+      <c r="AI33">
         <f>'[2]1,000'!$D31</f>
         <v>3</v>
       </c>
-      <c r="X33">
+      <c r="AJ33">
         <f>'[2]10,000'!$D31</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y33">
+      <c r="AK33">
         <f>'[2]100,000'!$E31</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA33">
+      <c r="AM33">
         <f>'[1]100'!$D31</f>
         <v>3</v>
       </c>
-      <c r="AB33">
+      <c r="AN33">
         <f>'[1]1,000'!$D31</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC33">
+      <c r="AO33">
         <f>'[1]10,000'!$D31</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD33">
+      <c r="AP33">
         <f>'[1]100,000'!$E31</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>10000</v>
       </c>
@@ -12000,56 +13430,59 @@
       <c r="J34" t="s">
         <v>29</v>
       </c>
-      <c r="Q34">
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC34">
         <f>'[3]100'!$D32</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R34">
+      <c r="AD34">
         <f>'[3]1,000'!$D32</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S34">
+      <c r="AE34">
         <f>'[3]10,000'!$D32</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T34">
+      <c r="AF34">
         <f>'[3]100,000'!$E32</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V34">
+      <c r="AH34">
         <f>'[2]100'!$D32</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="W34">
+      <c r="AI34">
         <f>'[2]1,000'!$D32</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X34">
+      <c r="AJ34">
         <f>'[2]10,000'!$D32</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y34">
+      <c r="AK34">
         <f>'[2]100,000'!$E32</f>
         <v>3</v>
       </c>
-      <c r="AA34">
+      <c r="AM34">
         <f>'[1]100'!$D32</f>
         <v>3</v>
       </c>
-      <c r="AB34">
+      <c r="AN34">
         <f>'[1]1,000'!$D32</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC34">
+      <c r="AO34">
         <f>'[1]10,000'!$D32</f>
         <v>3</v>
       </c>
-      <c r="AD34">
+      <c r="AP34">
         <f>'[1]100,000'!$E32</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>Trend!J5</f>
         <v>-3.3333333333342985E-3</v>
@@ -12057,62 +13490,65 @@
       <c r="F35" t="s">
         <v>40</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="11" t="s">
         <v>41</v>
       </c>
       <c r="L35" t="s">
         <v>37</v>
       </c>
-      <c r="Q35">
+      <c r="N35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC35">
         <f>'[3]100'!$D33</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R35">
+      <c r="AD35">
         <f>'[3]1,000'!$D33</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S35">
+      <c r="AE35">
         <f>'[3]10,000'!$D33</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T35">
+      <c r="AF35">
         <f>'[3]100,000'!$E33</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V35">
+      <c r="AH35">
         <f>'[2]100'!$D33</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W35">
+      <c r="AI35">
         <f>'[2]1,000'!$D33</f>
         <v>2</v>
       </c>
-      <c r="X35">
+      <c r="AJ35">
         <f>'[2]10,000'!$D33</f>
         <v>3</v>
       </c>
-      <c r="Y35">
+      <c r="AK35">
         <f>'[2]100,000'!$E33</f>
         <v>3</v>
       </c>
-      <c r="AA35">
+      <c r="AM35">
         <f>'[1]100'!$D33</f>
         <v>3</v>
       </c>
-      <c r="AB35">
+      <c r="AN35">
         <f>'[1]1,000'!$D33</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC35">
+      <c r="AO35">
         <f>'[1]10,000'!$D33</f>
         <v>3</v>
       </c>
-      <c r="AD35">
+      <c r="AP35">
         <f>'[1]100,000'!$E33</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
         <v>14</v>
@@ -12127,56 +13563,74 @@
       <c r="L36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q36">
+      <c r="M36" s="12"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="AC36">
         <f>'[3]100'!$D34</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R36">
+      <c r="AD36">
         <f>'[3]1,000'!$D34</f>
         <v>3</v>
       </c>
-      <c r="S36">
+      <c r="AE36">
         <f>'[3]10,000'!$D34</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T36">
+      <c r="AF36">
         <f>'[3]100,000'!$E34</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="V36">
+      <c r="AH36">
         <f>'[2]100'!$D34</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W36">
+      <c r="AI36">
         <f>'[2]1,000'!$D34</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X36">
+      <c r="AJ36">
         <f>'[2]10,000'!$D34</f>
         <v>3</v>
       </c>
-      <c r="Y36">
+      <c r="AK36">
         <f>'[2]100,000'!$E34</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA36">
+      <c r="AM36">
         <f>'[1]100'!$D34</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB36">
+      <c r="AN36">
         <f>'[1]1,000'!$D34</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC36">
+      <c r="AO36">
         <f>'[1]10,000'!$D34</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD36">
+      <c r="AP36">
         <f>'[1]100,000'!$E34</f>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>G45</f>
+        <v>0.98297902258150427</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
@@ -12195,56 +13649,72 @@
       <c r="L37" s="1">
         <v>3.2333333333333329</v>
       </c>
-      <c r="Q37">
+      <c r="M37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>3.2333333333333329</v>
+      </c>
+      <c r="P37" s="1">
+        <v>3.2366666666666672</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="AC37">
         <f>'[3]100'!$D35</f>
         <v>4</v>
       </c>
-      <c r="R37">
+      <c r="AD37">
         <f>'[3]1,000'!$D35</f>
         <v>3</v>
       </c>
-      <c r="S37">
+      <c r="AE37">
         <f>'[3]10,000'!$D35</f>
         <v>3</v>
       </c>
-      <c r="T37">
+      <c r="AF37">
         <f>'[3]100,000'!$E35</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="V37">
+      <c r="AH37">
         <f>'[2]100'!$D35</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W37">
+      <c r="AI37">
         <f>'[2]1,000'!$D35</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X37">
+      <c r="AJ37">
         <f>'[2]10,000'!$D35</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y37">
+      <c r="AK37">
         <f>'[2]100,000'!$E35</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AA37">
+      <c r="AM37">
         <f>'[1]100'!$D35</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB37">
+      <c r="AN37">
         <f>'[1]1,000'!$D35</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC37">
+      <c r="AO37">
         <f>'[1]10,000'!$D35</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD37">
+      <c r="AP37">
         <f>'[1]100,000'!$E35</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>2</v>
       </c>
@@ -12263,56 +13733,72 @@
       <c r="L38" s="1">
         <v>1.2962962962962887</v>
       </c>
-      <c r="Q38">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1.2962962962962887</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.13870931537597</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="AC38">
         <f>'[3]100'!$D36</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R38">
+      <c r="AD38">
         <f>'[3]1,000'!$D36</f>
         <v>3</v>
       </c>
-      <c r="S38">
+      <c r="AE38">
         <f>'[3]10,000'!$D36</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T38">
+      <c r="AF38">
         <f>'[3]100,000'!$E36</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V38">
+      <c r="AH38">
         <f>'[2]100'!$D36</f>
         <v>4</v>
       </c>
-      <c r="W38">
+      <c r="AI38">
         <f>'[2]1,000'!$D36</f>
         <v>3</v>
       </c>
-      <c r="X38">
+      <c r="AJ38">
         <f>'[2]10,000'!$D36</f>
         <v>3</v>
       </c>
-      <c r="Y38">
+      <c r="AK38">
         <f>'[2]100,000'!$E36</f>
         <v>3</v>
       </c>
-      <c r="AA38">
+      <c r="AM38">
         <f>'[1]100'!$D36</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AB38">
+      <c r="AN38">
         <f>'[1]1,000'!$D36</f>
         <v>3</v>
       </c>
-      <c r="AC38">
+      <c r="AO38">
         <f>'[1]10,000'!$D36</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD38">
+      <c r="AP38">
         <f>'[1]100,000'!$E36</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>3</v>
       </c>
@@ -12331,56 +13817,72 @@
       <c r="L39" s="1">
         <v>100</v>
       </c>
-      <c r="Q39">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>100</v>
+      </c>
+      <c r="P39" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="AC39">
         <f>'[3]100'!$D37</f>
         <v>4</v>
       </c>
-      <c r="R39">
+      <c r="AD39">
         <f>'[3]1,000'!$D37</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S39">
+      <c r="AE39">
         <f>'[3]10,000'!$D37</f>
         <v>4</v>
       </c>
-      <c r="T39">
+      <c r="AF39">
         <f>'[3]100,000'!$E37</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V39">
+      <c r="AH39">
         <f>'[2]100'!$D37</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W39">
+      <c r="AI39">
         <f>'[2]1,000'!$D37</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X39">
+      <c r="AJ39">
         <f>'[2]10,000'!$D37</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y39">
+      <c r="AK39">
         <f>'[2]100,000'!$E37</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA39">
+      <c r="AM39">
         <f>'[1]100'!$D37</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB39">
+      <c r="AN39">
         <f>'[1]1,000'!$D37</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC39">
+      <c r="AO39">
         <f>'[1]10,000'!$D37</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD39">
+      <c r="AP39">
         <f>'[1]100,000'!$E37</f>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>5</v>
       </c>
@@ -12397,56 +13899,70 @@
       <c r="L40" s="1">
         <v>99</v>
       </c>
-      <c r="Q40">
+      <c r="M40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="AC40">
         <f>'[3]100'!$D38</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R40">
+      <c r="AD40">
         <f>'[3]1,000'!$D38</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S40">
+      <c r="AE40">
         <f>'[3]10,000'!$D38</f>
         <v>3</v>
       </c>
-      <c r="T40">
+      <c r="AF40">
         <f>'[3]100,000'!$E38</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V40">
+      <c r="AH40">
         <f>'[2]100'!$D38</f>
         <v>4</v>
       </c>
-      <c r="W40">
+      <c r="AI40">
         <f>'[2]1,000'!$D38</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X40">
+      <c r="AJ40">
         <f>'[2]10,000'!$D38</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y40">
+      <c r="AK40">
         <f>'[2]100,000'!$E38</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA40">
+      <c r="AM40">
         <f>'[1]100'!$D38</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB40">
+      <c r="AN40">
         <f>'[1]1,000'!$D38</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC40">
+      <c r="AO40">
         <f>'[1]10,000'!$D38</f>
         <v>3</v>
       </c>
-      <c r="AD40">
+      <c r="AP40">
         <f>'[1]100,000'!$E38</f>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
@@ -12461,56 +13977,70 @@
         <v>0.87843290043289624</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="Q41">
+      <c r="M41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="1">
+        <v>197</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="AC41">
         <f>'[3]100'!$D39</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R41">
+      <c r="AD41">
         <f>'[3]1,000'!$D39</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S41">
+      <c r="AE41">
         <f>'[3]10,000'!$D39</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T41">
+      <c r="AF41">
         <f>'[3]100,000'!$E39</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V41">
+      <c r="AH41">
         <f>'[2]100'!$D39</f>
         <v>3</v>
       </c>
-      <c r="W41">
+      <c r="AI41">
         <f>'[2]1,000'!$D39</f>
         <v>3</v>
       </c>
-      <c r="X41">
+      <c r="AJ41">
         <f>'[2]10,000'!$D39</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y41">
+      <c r="AK41">
         <f>'[2]100,000'!$E39</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA41">
+      <c r="AM41">
         <f>'[1]100'!$D39</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB41">
+      <c r="AN41">
         <f>'[1]1,000'!$D39</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC41">
+      <c r="AO41">
         <f>'[1]10,000'!$D39</f>
         <v>4</v>
       </c>
-      <c r="AD41">
+      <c r="AP41">
         <f>'[1]100,000'!$E39</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F42" s="1" t="s">
         <v>7</v>
       </c>
@@ -12525,56 +14055,70 @@
         <v>0.260118663448757</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="Q42">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-3.2255643416338002</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="AC42">
         <f>'[3]100'!$D40</f>
         <v>3</v>
       </c>
-      <c r="R42">
+      <c r="AD42">
         <f>'[3]1,000'!$D40</f>
         <v>3</v>
       </c>
-      <c r="S42">
+      <c r="AE42">
         <f>'[3]10,000'!$D40</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T42">
+      <c r="AF42">
         <f>'[3]100,000'!$E40</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V42">
+      <c r="AH42">
         <f>'[2]100'!$D40</f>
         <v>3</v>
       </c>
-      <c r="W42">
+      <c r="AI42">
         <f>'[2]1,000'!$D40</f>
         <v>3</v>
       </c>
-      <c r="X42">
+      <c r="AJ42">
         <f>'[2]10,000'!$D40</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y42">
+      <c r="AK42">
         <f>'[2]100,000'!$E40</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA42">
+      <c r="AM42">
         <f>'[1]100'!$D40</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB42">
+      <c r="AN42">
         <f>'[1]1,000'!$D40</f>
         <v>3</v>
       </c>
-      <c r="AC42">
+      <c r="AO42">
         <f>'[1]10,000'!$D40</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AD42">
+      <c r="AP42">
         <f>'[1]100,000'!$E40</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
@@ -12589,56 +14133,70 @@
         <v>0.7173285927924351</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="Q43">
+      <c r="M43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="1">
+        <v>7.3604045827643479E-4</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="AC43">
         <f>'[3]100'!$D41</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="R43">
+      <c r="AD43">
         <f>'[3]1,000'!$D41</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S43">
+      <c r="AE43">
         <f>'[3]10,000'!$D41</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T43">
+      <c r="AF43">
         <f>'[3]100,000'!$E41</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V43">
+      <c r="AH43">
         <f>'[2]100'!$D41</f>
         <v>2</v>
       </c>
-      <c r="W43">
+      <c r="AI43">
         <f>'[2]1,000'!$D41</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X43">
+      <c r="AJ43">
         <f>'[2]10,000'!$D41</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y43">
+      <c r="AK43">
         <f>'[2]100,000'!$E41</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA43">
+      <c r="AM43">
         <f>'[1]100'!$D41</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB43">
+      <c r="AN43">
         <f>'[1]1,000'!$D41</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC43">
+      <c r="AO43">
         <f>'[1]10,000'!$D41</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD43">
+      <c r="AP43">
         <f>'[1]100,000'!$E41</f>
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="s">
         <v>9</v>
       </c>
@@ -12646,56 +14204,63 @@
         <v>1.6526252192655086</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="Q44">
+      <c r="N44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1.6526252192655086</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="AC44">
         <f>'[3]100'!$D42</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R44">
+      <c r="AD44">
         <f>'[3]1,000'!$D42</f>
         <v>3</v>
       </c>
-      <c r="S44">
+      <c r="AE44">
         <f>'[3]10,000'!$D42</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T44">
+      <c r="AF44">
         <f>'[3]100,000'!$E42</f>
         <v>3</v>
       </c>
-      <c r="V44">
+      <c r="AH44">
         <f>'[2]100'!$D42</f>
         <v>3</v>
       </c>
-      <c r="W44">
+      <c r="AI44">
         <f>'[2]1,000'!$D42</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X44">
+      <c r="AJ44">
         <f>'[2]10,000'!$D42</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y44">
+      <c r="AK44">
         <f>'[2]100,000'!$E42</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA44">
+      <c r="AM44">
         <f>'[1]100'!$D42</f>
         <v>3</v>
       </c>
-      <c r="AB44">
+      <c r="AN44">
         <f>'[1]1,000'!$D42</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC44">
+      <c r="AO44">
         <f>'[1]10,000'!$D42</f>
         <v>3</v>
       </c>
-      <c r="AD44">
+      <c r="AP44">
         <f>'[1]100,000'!$E42</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="s">
         <v>10</v>
       </c>
@@ -12703,56 +14268,63 @@
         <v>0.98297902258150427</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="Q45">
+      <c r="N45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1.4720809165528696E-3</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="AC45">
         <f>'[3]100'!$D43</f>
         <v>3</v>
       </c>
-      <c r="R45">
+      <c r="AD45">
         <f>'[3]1,000'!$D43</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="S45">
+      <c r="AE45">
         <f>'[3]10,000'!$D43</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T45">
+      <c r="AF45">
         <f>'[3]100,000'!$E43</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V45">
+      <c r="AH45">
         <f>'[2]100'!$D43</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W45">
+      <c r="AI45">
         <f>'[2]1,000'!$D43</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X45">
+      <c r="AJ45">
         <f>'[2]10,000'!$D43</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y45">
+      <c r="AK45">
         <f>'[2]100,000'!$E43</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA45">
+      <c r="AM45">
         <f>'[1]100'!$D43</f>
         <v>3</v>
       </c>
-      <c r="AB45">
+      <c r="AN45">
         <f>'[1]1,000'!$D43</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC45">
+      <c r="AO45">
         <f>'[1]10,000'!$D43</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AD45">
+      <c r="AP45">
         <f>'[1]100,000'!$E43</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F46" s="2" t="s">
         <v>11</v>
       </c>
@@ -12760,206 +14332,213 @@
         <v>1.9720790337785019</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="Q46">
+      <c r="N46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1.9720790337785019</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="AC46">
         <f>'[3]100'!$D44</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R46">
+      <c r="AD46">
         <f>'[3]1,000'!$D44</f>
         <v>4</v>
       </c>
-      <c r="S46">
+      <c r="AE46">
         <f>'[3]10,000'!$D44</f>
         <v>3</v>
       </c>
-      <c r="T46">
+      <c r="AF46">
         <f>'[3]100,000'!$E44</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V46">
+      <c r="AH46">
         <f>'[2]100'!$D44</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W46">
+      <c r="AI46">
         <f>'[2]1,000'!$D44</f>
         <v>3</v>
       </c>
-      <c r="X46">
+      <c r="AJ46">
         <f>'[2]10,000'!$D44</f>
         <v>3</v>
       </c>
-      <c r="Y46">
+      <c r="AK46">
         <f>'[2]100,000'!$E44</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA46">
+      <c r="AM46">
         <f>'[1]100'!$D44</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AB46">
+      <c r="AN46">
         <f>'[1]1,000'!$D44</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC46">
+      <c r="AO46">
         <f>'[1]10,000'!$D44</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD46">
+      <c r="AP46">
         <f>'[1]100,000'!$E44</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q47">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC47">
         <f>'[3]100'!$D45</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R47">
+      <c r="AD47">
         <f>'[3]1,000'!$D45</f>
         <v>4</v>
       </c>
-      <c r="S47">
+      <c r="AE47">
         <f>'[3]10,000'!$D45</f>
         <v>3</v>
       </c>
-      <c r="T47">
+      <c r="AF47">
         <f>'[3]100,000'!$E45</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V47">
+      <c r="AH47">
         <f>'[2]100'!$D45</f>
         <v>3</v>
       </c>
-      <c r="W47">
+      <c r="AI47">
         <f>'[2]1,000'!$D45</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X47">
+      <c r="AJ47">
         <f>'[2]10,000'!$D45</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y47">
+      <c r="AK47">
         <f>'[2]100,000'!$E45</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA47">
+      <c r="AM47">
         <f>'[1]100'!$D45</f>
         <v>3</v>
       </c>
-      <c r="AB47">
+      <c r="AN47">
         <f>'[1]1,000'!$D45</f>
         <v>3</v>
       </c>
-      <c r="AC47">
+      <c r="AO47">
         <f>'[1]10,000'!$D45</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD47">
+      <c r="AP47">
         <f>'[1]100,000'!$E45</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q48">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC48">
         <f>'[3]100'!$D46</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R48">
+      <c r="AD48">
         <f>'[3]1,000'!$D46</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S48">
+      <c r="AE48">
         <f>'[3]10,000'!$D46</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T48">
+      <c r="AF48">
         <f>'[3]100,000'!$E46</f>
         <v>3</v>
       </c>
-      <c r="V48">
+      <c r="AH48">
         <f>'[2]100'!$D46</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W48">
+      <c r="AI48">
         <f>'[2]1,000'!$D46</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="X48">
+      <c r="AJ48">
         <f>'[2]10,000'!$D46</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y48">
+      <c r="AK48">
         <f>'[2]100,000'!$E46</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA48">
+      <c r="AM48">
         <f>'[1]100'!$D46</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB48">
+      <c r="AN48">
         <f>'[1]1,000'!$D46</f>
         <v>3</v>
       </c>
-      <c r="AC48">
+      <c r="AO48">
         <f>'[1]10,000'!$D46</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD48">
+      <c r="AP48">
         <f>'[1]100,000'!$E46</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q49">
+    <row r="49" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC49">
         <f>'[3]100'!$D47</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R49">
+      <c r="AD49">
         <f>'[3]1,000'!$D47</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="S49">
+      <c r="AE49">
         <f>'[3]10,000'!$D47</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T49">
+      <c r="AF49">
         <f>'[3]100,000'!$E47</f>
         <v>3</v>
       </c>
-      <c r="V49">
+      <c r="AH49">
         <f>'[2]100'!$D47</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W49">
+      <c r="AI49">
         <f>'[2]1,000'!$D47</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X49">
+      <c r="AJ49">
         <f>'[2]10,000'!$D47</f>
         <v>3</v>
       </c>
-      <c r="Y49">
+      <c r="AK49">
         <f>'[2]100,000'!$E47</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA49">
+      <c r="AM49">
         <f>'[1]100'!$D47</f>
         <v>4</v>
       </c>
-      <c r="AB49">
+      <c r="AN49">
         <f>'[1]1,000'!$D47</f>
         <v>3</v>
       </c>
-      <c r="AC49">
+      <c r="AO49">
         <f>'[1]10,000'!$D47</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD49">
+      <c r="AP49">
         <f>'[1]100,000'!$E47</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>100000</v>
       </c>
@@ -12969,56 +14548,59 @@
       <c r="J50" t="s">
         <v>29</v>
       </c>
-      <c r="Q50">
+      <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC50">
         <f>'[3]100'!$D48</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R50">
+      <c r="AD50">
         <f>'[3]1,000'!$D48</f>
         <v>3</v>
       </c>
-      <c r="S50">
+      <c r="AE50">
         <f>'[3]10,000'!$D48</f>
         <v>3</v>
       </c>
-      <c r="T50">
+      <c r="AF50">
         <f>'[3]100,000'!$E48</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V50">
+      <c r="AH50">
         <f>'[2]100'!$D48</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W50">
+      <c r="AI50">
         <f>'[2]1,000'!$D48</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="X50">
+      <c r="AJ50">
         <f>'[2]10,000'!$D48</f>
         <v>3</v>
       </c>
-      <c r="Y50">
+      <c r="AK50">
         <f>'[2]100,000'!$E48</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA50">
+      <c r="AM50">
         <f>'[1]100'!$D48</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB50">
+      <c r="AN50">
         <f>'[1]1,000'!$D48</f>
         <v>3</v>
       </c>
-      <c r="AC50">
+      <c r="AO50">
         <f>'[1]10,000'!$D48</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD50">
+      <c r="AP50">
         <f>'[1]100,000'!$E48</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>Trend!J6</f>
         <v>-0.2466666666666657</v>
@@ -13026,65 +14608,65 @@
       <c r="F51" t="s">
         <v>40</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q51">
+      <c r="AC51">
         <f>'[3]100'!$D49</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R51">
+      <c r="AD51">
         <f>'[3]1,000'!$D49</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S51">
+      <c r="AE51">
         <f>'[3]10,000'!$D49</f>
         <v>3</v>
       </c>
-      <c r="T51">
+      <c r="AF51">
         <f>'[3]100,000'!$E49</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V51">
+      <c r="AH51">
         <f>'[2]100'!$D49</f>
         <v>3</v>
       </c>
-      <c r="W51">
+      <c r="AI51">
         <f>'[2]1,000'!$D49</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X51">
+      <c r="AJ51">
         <f>'[2]10,000'!$D49</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y51">
+      <c r="AK51">
         <f>'[2]100,000'!$E49</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA51">
+      <c r="AM51">
         <f>'[1]100'!$D49</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB51">
+      <c r="AN51">
         <f>'[1]1,000'!$D49</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC51">
+      <c r="AO51">
         <f>'[1]10,000'!$D49</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD51">
+      <c r="AP51">
         <f>'[1]100,000'!$E49</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
@@ -13093,56 +14675,74 @@
       <c r="L52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q52">
+      <c r="M52" s="12"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="AC52">
         <f>'[3]100'!$D50</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R52">
+      <c r="AD52">
         <f>'[3]1,000'!$D50</f>
         <v>2</v>
       </c>
-      <c r="S52">
+      <c r="AE52">
         <f>'[3]10,000'!$D50</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="T52">
+      <c r="AF52">
         <f>'[3]100,000'!$E50</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V52">
+      <c r="AH52">
         <f>'[2]100'!$D50</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W52">
+      <c r="AI52">
         <f>'[2]1,000'!$D50</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X52">
+      <c r="AJ52">
         <f>'[2]10,000'!$D50</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y52">
+      <c r="AK52">
         <f>'[2]100,000'!$E50</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA52">
+      <c r="AM52">
         <f>'[1]100'!$D50</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB52">
+      <c r="AN52">
         <f>'[1]1,000'!$D50</f>
         <v>5</v>
       </c>
-      <c r="AC52">
+      <c r="AO52">
         <f>'[1]10,000'!$D50</f>
         <v>4</v>
       </c>
-      <c r="AD52">
+      <c r="AP52">
         <f>'[1]100,000'!$E50</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>G61</f>
+        <v>7.8700161556894729E-2</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>1</v>
       </c>
@@ -13161,56 +14761,72 @@
       <c r="L53" s="1">
         <v>3.0966666666666676</v>
       </c>
-      <c r="Q53">
+      <c r="M53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>3.0966666666666676</v>
+      </c>
+      <c r="P53" s="1">
+        <v>3.3433333333333333</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="AC53">
         <f>'[3]100'!$D51</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="R53">
+      <c r="AD53">
         <f>'[3]1,000'!$D51</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S53">
+      <c r="AE53">
         <f>'[3]10,000'!$D51</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T53">
+      <c r="AF53">
         <f>'[3]100,000'!$E51</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V53">
+      <c r="AH53">
         <f>'[2]100'!$D51</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W53">
+      <c r="AI53">
         <f>'[2]1,000'!$D51</f>
         <v>2</v>
       </c>
-      <c r="X53">
+      <c r="AJ53">
         <f>'[2]10,000'!$D51</f>
         <v>3</v>
       </c>
-      <c r="Y53">
+      <c r="AK53">
         <f>'[2]100,000'!$E51</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA53">
+      <c r="AM53">
         <f>'[1]100'!$D51</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB53">
+      <c r="AN53">
         <f>'[1]1,000'!$D51</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC53">
+      <c r="AO53">
         <f>'[1]10,000'!$D51</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD53">
+      <c r="AP53">
         <f>'[1]100,000'!$E51</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F54" s="1" t="s">
         <v>2</v>
       </c>
@@ -13229,56 +14845,72 @@
       <c r="L54" s="1">
         <v>1.0152525252525149</v>
       </c>
-      <c r="Q54">
+      <c r="M54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1.0152525252525149</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.93255892255891504</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="AC54">
         <f>'[3]100'!$D52</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R54">
+      <c r="AD54">
         <f>'[3]1,000'!$D52</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S54">
+      <c r="AE54">
         <f>'[3]10,000'!$D52</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T54">
+      <c r="AF54">
         <f>'[3]100,000'!$E52</f>
         <v>3</v>
       </c>
-      <c r="V54">
+      <c r="AH54">
         <f>'[2]100'!$D52</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W54">
+      <c r="AI54">
         <f>'[2]1,000'!$D52</f>
         <v>3</v>
       </c>
-      <c r="X54">
+      <c r="AJ54">
         <f>'[2]10,000'!$D52</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y54">
+      <c r="AK54">
         <f>'[2]100,000'!$E52</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA54">
+      <c r="AM54">
         <f>'[1]100'!$D52</f>
         <v>3</v>
       </c>
-      <c r="AB54">
+      <c r="AN54">
         <f>'[1]1,000'!$D52</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC54">
+      <c r="AO54">
         <f>'[1]10,000'!$D52</f>
         <v>3</v>
       </c>
-      <c r="AD54">
+      <c r="AP54">
         <f>'[1]100,000'!$E52</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="s">
         <v>3</v>
       </c>
@@ -13297,56 +14929,72 @@
       <c r="L55" s="1">
         <v>100</v>
       </c>
-      <c r="Q55">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="1">
+        <v>100</v>
+      </c>
+      <c r="P55" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="AC55">
         <f>'[3]100'!$D53</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="R55">
+      <c r="AD55">
         <f>'[3]1,000'!$D53</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S55">
+      <c r="AE55">
         <f>'[3]10,000'!$D53</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T55">
+      <c r="AF55">
         <f>'[3]100,000'!$E53</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V55">
+      <c r="AH55">
         <f>'[2]100'!$D53</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W55">
+      <c r="AI55">
         <f>'[2]1,000'!$D53</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X55">
+      <c r="AJ55">
         <f>'[2]10,000'!$D53</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y55">
+      <c r="AK55">
         <f>'[2]100,000'!$E53</f>
         <v>3</v>
       </c>
-      <c r="AA55">
+      <c r="AM55">
         <f>'[1]100'!$D53</f>
         <v>3</v>
       </c>
-      <c r="AB55">
+      <c r="AN55">
         <f>'[1]1,000'!$D53</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC55">
+      <c r="AO55">
         <f>'[1]10,000'!$D53</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD55">
+      <c r="AP55">
         <f>'[1]100,000'!$E53</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F56" s="1" t="s">
         <v>5</v>
       </c>
@@ -13363,56 +15011,70 @@
       <c r="L56" s="1">
         <v>99</v>
       </c>
-      <c r="Q56">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="AC56">
         <f>'[3]100'!$D54</f>
         <v>3</v>
       </c>
-      <c r="R56">
+      <c r="AD56">
         <f>'[3]1,000'!$D54</f>
         <v>3</v>
       </c>
-      <c r="S56">
+      <c r="AE56">
         <f>'[3]10,000'!$D54</f>
         <v>3</v>
       </c>
-      <c r="T56">
+      <c r="AF56">
         <f>'[3]100,000'!$E54</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V56">
+      <c r="AH56">
         <f>'[2]100'!$D54</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W56">
+      <c r="AI56">
         <f>'[2]1,000'!$D54</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X56">
+      <c r="AJ56">
         <f>'[2]10,000'!$D54</f>
         <v>3</v>
       </c>
-      <c r="Y56">
+      <c r="AK56">
         <f>'[2]100,000'!$E54</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA56">
+      <c r="AM56">
         <f>'[1]100'!$D54</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB56">
+      <c r="AN56">
         <f>'[1]1,000'!$D54</f>
         <v>3</v>
       </c>
-      <c r="AC56">
+      <c r="AO56">
         <f>'[1]10,000'!$D54</f>
         <v>3</v>
       </c>
-      <c r="AD56">
+      <c r="AP56">
         <f>'[1]100,000'!$E54</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
@@ -13427,56 +15089,70 @@
         <v>0.91854873478592713</v>
       </c>
       <c r="L57" s="1"/>
-      <c r="Q57">
+      <c r="M57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="1">
+        <v>198</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="AC57">
         <f>'[3]100'!$D55</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R57">
+      <c r="AD57">
         <f>'[3]1,000'!$D55</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S57">
+      <c r="AE57">
         <f>'[3]10,000'!$D55</f>
         <v>3</v>
       </c>
-      <c r="T57">
+      <c r="AF57">
         <f>'[3]100,000'!$E55</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V57">
+      <c r="AH57">
         <f>'[2]100'!$D55</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W57">
+      <c r="AI57">
         <f>'[2]1,000'!$D55</f>
         <v>3</v>
       </c>
-      <c r="X57">
+      <c r="AJ57">
         <f>'[2]10,000'!$D55</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y57">
+      <c r="AK57">
         <f>'[2]100,000'!$E55</f>
         <v>6</v>
       </c>
-      <c r="AA57">
+      <c r="AM57">
         <f>'[1]100'!$D55</f>
         <v>3</v>
       </c>
-      <c r="AB57">
+      <c r="AN57">
         <f>'[1]1,000'!$D55</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC57">
+      <c r="AO57">
         <f>'[1]10,000'!$D55</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD57">
+      <c r="AP57">
         <f>'[1]100,000'!$E55</f>
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F58" s="1" t="s">
         <v>7</v>
       </c>
@@ -13491,56 +15167,70 @@
         <v>0.33667929683588427</v>
       </c>
       <c r="L58" s="1"/>
-      <c r="Q58">
+      <c r="M58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O58" s="1">
+        <v>-5.3499941437297993</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="AC58">
         <f>'[3]100'!$D56</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="R58">
+      <c r="AD58">
         <f>'[3]1,000'!$D56</f>
         <v>2</v>
       </c>
-      <c r="S58">
+      <c r="AE58">
         <f>'[3]10,000'!$D56</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T58">
+      <c r="AF58">
         <f>'[3]100,000'!$E56</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V58">
+      <c r="AH58">
         <f>'[2]100'!$D56</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W58">
+      <c r="AI58">
         <f>'[2]1,000'!$D56</f>
         <v>3</v>
       </c>
-      <c r="X58">
+      <c r="AJ58">
         <f>'[2]10,000'!$D56</f>
         <v>3</v>
       </c>
-      <c r="Y58">
+      <c r="AK58">
         <f>'[2]100,000'!$E56</f>
         <v>4</v>
       </c>
-      <c r="AA58">
+      <c r="AM58">
         <f>'[1]100'!$D56</f>
         <v>3</v>
       </c>
-      <c r="AB58">
+      <c r="AN58">
         <f>'[1]1,000'!$D56</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC58">
+      <c r="AO58">
         <f>'[1]10,000'!$D56</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD58">
+      <c r="AP58">
         <f>'[1]100,000'!$E56</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
@@ -13555,56 +15245,70 @@
         <v>0.7173285927924351</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="Q59">
+      <c r="M59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1.2085952340003715E-7</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="AC59">
         <f>'[3]100'!$D57</f>
         <v>3</v>
       </c>
-      <c r="R59">
+      <c r="AD59">
         <f>'[3]1,000'!$D57</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S59">
+      <c r="AE59">
         <f>'[3]10,000'!$D57</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T59">
+      <c r="AF59">
         <f>'[3]100,000'!$E57</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V59">
+      <c r="AH59">
         <f>'[2]100'!$D57</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="W59">
+      <c r="AI59">
         <f>'[2]1,000'!$D57</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="X59">
+      <c r="AJ59">
         <f>'[2]10,000'!$D57</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y59">
+      <c r="AK59">
         <f>'[2]100,000'!$E57</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA59">
+      <c r="AM59">
         <f>'[1]100'!$D57</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="AB59">
+      <c r="AN59">
         <f>'[1]1,000'!$D57</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC59">
+      <c r="AO59">
         <f>'[1]10,000'!$D57</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD59">
+      <c r="AP59">
         <f>'[1]100,000'!$E57</f>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F60" s="1" t="s">
         <v>9</v>
       </c>
@@ -13612,56 +15316,63 @@
         <v>1.6525857836178461</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="Q60">
+      <c r="N60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1.6525857836178461</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="AC60">
         <f>'[3]100'!$D58</f>
         <v>4</v>
       </c>
-      <c r="R60">
+      <c r="AD60">
         <f>'[3]1,000'!$D58</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S60">
+      <c r="AE60">
         <f>'[3]10,000'!$D58</f>
         <v>3</v>
       </c>
-      <c r="T60">
+      <c r="AF60">
         <f>'[3]100,000'!$E58</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V60">
+      <c r="AH60">
         <f>'[2]100'!$D58</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W60">
+      <c r="AI60">
         <f>'[2]1,000'!$D58</f>
         <v>3</v>
       </c>
-      <c r="X60">
+      <c r="AJ60">
         <f>'[2]10,000'!$D58</f>
         <v>3</v>
       </c>
-      <c r="Y60">
+      <c r="AK60">
         <f>'[2]100,000'!$E58</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA60">
+      <c r="AM60">
         <f>'[1]100'!$D58</f>
         <v>3</v>
       </c>
-      <c r="AB60">
+      <c r="AN60">
         <f>'[1]1,000'!$D58</f>
         <v>2</v>
       </c>
-      <c r="AC60">
+      <c r="AO60">
         <f>'[1]10,000'!$D58</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD60">
+      <c r="AP60">
         <f>'[1]100,000'!$E58</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
         <v>10</v>
       </c>
@@ -13669,56 +15380,63 @@
         <v>7.8700161556894729E-2</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="Q61">
+      <c r="N61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2.4171904680007429E-7</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="AC61">
         <f>'[3]100'!$D59</f>
         <v>4</v>
       </c>
-      <c r="R61">
+      <c r="AD61">
         <f>'[3]1,000'!$D59</f>
         <v>3</v>
       </c>
-      <c r="S61">
+      <c r="AE61">
         <f>'[3]10,000'!$D59</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T61">
+      <c r="AF61">
         <f>'[3]100,000'!$E59</f>
         <v>3</v>
       </c>
-      <c r="V61">
+      <c r="AH61">
         <f>'[2]100'!$D59</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="W61">
+      <c r="AI61">
         <f>'[2]1,000'!$D59</f>
         <v>3</v>
       </c>
-      <c r="X61">
+      <c r="AJ61">
         <f>'[2]10,000'!$D59</f>
         <v>3</v>
       </c>
-      <c r="Y61">
+      <c r="AK61">
         <f>'[2]100,000'!$E59</f>
         <v>3</v>
       </c>
-      <c r="AA61">
+      <c r="AM61">
         <f>'[1]100'!$D59</f>
         <v>3</v>
       </c>
-      <c r="AB61">
+      <c r="AN61">
         <f>'[1]1,000'!$D59</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC61">
+      <c r="AO61">
         <f>'[1]10,000'!$D59</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD61">
+      <c r="AP61">
         <f>'[1]100,000'!$E59</f>
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F62" s="2" t="s">
         <v>11</v>
       </c>
@@ -13726,206 +15444,213 @@
         <v>1.9720174778363073</v>
       </c>
       <c r="H62" s="2"/>
-      <c r="Q62">
+      <c r="N62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1.9720174778363073</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="AC62">
         <f>'[3]100'!$D60</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R62">
+      <c r="AD62">
         <f>'[3]1,000'!$D60</f>
         <v>3</v>
       </c>
-      <c r="S62">
+      <c r="AE62">
         <f>'[3]10,000'!$D60</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T62">
+      <c r="AF62">
         <f>'[3]100,000'!$E60</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V62">
+      <c r="AH62">
         <f>'[2]100'!$D60</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W62">
+      <c r="AI62">
         <f>'[2]1,000'!$D60</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X62">
+      <c r="AJ62">
         <f>'[2]10,000'!$D60</f>
         <v>3</v>
       </c>
-      <c r="Y62">
+      <c r="AK62">
         <f>'[2]100,000'!$E60</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA62">
+      <c r="AM62">
         <f>'[1]100'!$D60</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB62">
+      <c r="AN62">
         <f>'[1]1,000'!$D60</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC62">
+      <c r="AO62">
         <f>'[1]10,000'!$D60</f>
         <v>3</v>
       </c>
-      <c r="AD62">
+      <c r="AP62">
         <f>'[1]100,000'!$E60</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q63">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC63">
         <f>'[3]100'!$D61</f>
         <v>3</v>
       </c>
-      <c r="R63">
+      <c r="AD63">
         <f>'[3]1,000'!$D61</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S63">
+      <c r="AE63">
         <f>'[3]10,000'!$D61</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T63">
+      <c r="AF63">
         <f>'[3]100,000'!$E61</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V63">
+      <c r="AH63">
         <f>'[2]100'!$D61</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W63">
+      <c r="AI63">
         <f>'[2]1,000'!$D61</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X63">
+      <c r="AJ63">
         <f>'[2]10,000'!$D61</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y63">
+      <c r="AK63">
         <f>'[2]100,000'!$E61</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA63">
+      <c r="AM63">
         <f>'[1]100'!$D61</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB63">
+      <c r="AN63">
         <f>'[1]1,000'!$D61</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC63">
+      <c r="AO63">
         <f>'[1]10,000'!$D61</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD63">
+      <c r="AP63">
         <f>'[1]100,000'!$E61</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q64">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC64">
         <f>'[3]100'!$D62</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R64">
+      <c r="AD64">
         <f>'[3]1,000'!$D62</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S64">
+      <c r="AE64">
         <f>'[3]10,000'!$D62</f>
         <v>2</v>
       </c>
-      <c r="T64">
+      <c r="AF64">
         <f>'[3]100,000'!$E62</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V64">
+      <c r="AH64">
         <f>'[2]100'!$D62</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W64">
+      <c r="AI64">
         <f>'[2]1,000'!$D62</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X64">
+      <c r="AJ64">
         <f>'[2]10,000'!$D62</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y64">
+      <c r="AK64">
         <f>'[2]100,000'!$E62</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA64">
+      <c r="AM64">
         <f>'[1]100'!$D62</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB64">
+      <c r="AN64">
         <f>'[1]1,000'!$D62</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC64">
+      <c r="AO64">
         <f>'[1]10,000'!$D62</f>
         <v>3</v>
       </c>
-      <c r="AD64">
+      <c r="AP64">
         <f>'[1]100,000'!$E62</f>
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q65">
+    <row r="65" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC65">
         <f>'[3]100'!$D63</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="R65">
+      <c r="AD65">
         <f>'[3]1,000'!$D63</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="S65">
+      <c r="AE65">
         <f>'[3]10,000'!$D63</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T65">
+      <c r="AF65">
         <f>'[3]100,000'!$E63</f>
         <v>3</v>
       </c>
-      <c r="V65">
+      <c r="AH65">
         <f>'[2]100'!$D63</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W65">
+      <c r="AI65">
         <f>'[2]1,000'!$D63</f>
         <v>3</v>
       </c>
-      <c r="X65">
+      <c r="AJ65">
         <f>'[2]10,000'!$D63</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y65">
+      <c r="AK65">
         <f>'[2]100,000'!$E63</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA65">
+      <c r="AM65">
         <f>'[1]100'!$D63</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB65">
+      <c r="AN65">
         <f>'[1]1,000'!$D63</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC65">
+      <c r="AO65">
         <f>'[1]10,000'!$D63</f>
         <v>3</v>
       </c>
-      <c r="AD65">
+      <c r="AP65">
         <f>'[1]100,000'!$E63</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>1000000</v>
       </c>
@@ -13938,119 +15663,119 @@
       <c r="J66" t="s">
         <v>29</v>
       </c>
-      <c r="Q66">
+      <c r="AC66">
         <f>'[3]100'!$D64</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="R66">
+      <c r="AD66">
         <f>'[3]1,000'!$D64</f>
         <v>3</v>
       </c>
-      <c r="S66">
+      <c r="AE66">
         <f>'[3]10,000'!$D64</f>
         <v>3</v>
       </c>
-      <c r="T66">
+      <c r="AF66">
         <f>'[3]100,000'!$E64</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V66">
+      <c r="AH66">
         <f>'[2]100'!$D64</f>
         <v>3</v>
       </c>
-      <c r="W66">
+      <c r="AI66">
         <f>'[2]1,000'!$D64</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X66">
+      <c r="AJ66">
         <f>'[2]10,000'!$D64</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y66">
+      <c r="AK66">
         <f>'[2]100,000'!$E64</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA66">
+      <c r="AM66">
         <f>'[1]100'!$D64</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB66">
+      <c r="AN66">
         <f>'[1]1,000'!$D64</f>
         <v>3</v>
       </c>
-      <c r="AC66">
+      <c r="AO66">
         <f>'[1]10,000'!$D64</f>
         <v>3</v>
       </c>
-      <c r="AD66">
+      <c r="AP66">
         <f>'[1]100,000'!$E64</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>Trend!J7</f>
         <v>-0.19062576257625752</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="11" t="s">
         <v>43</v>
       </c>
       <c r="J67" t="s">
         <v>40</v>
       </c>
-      <c r="Q67">
+      <c r="AC67">
         <f>'[3]100'!$D65</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R67">
+      <c r="AD67">
         <f>'[3]1,000'!$D65</f>
         <v>3</v>
       </c>
-      <c r="S67">
+      <c r="AE67">
         <f>'[3]10,000'!$D65</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T67">
+      <c r="AF67">
         <f>'[3]100,000'!$E65</f>
         <v>3</v>
       </c>
-      <c r="V67">
+      <c r="AH67">
         <f>'[2]100'!$D65</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W67">
+      <c r="AI67">
         <f>'[2]1,000'!$D65</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X67">
+      <c r="AJ67">
         <f>'[2]10,000'!$D65</f>
         <v>3</v>
       </c>
-      <c r="Y67">
+      <c r="AK67">
         <f>'[2]100,000'!$E65</f>
         <v>3</v>
       </c>
-      <c r="AA67">
+      <c r="AM67">
         <f>'[1]100'!$D65</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB67">
+      <c r="AN67">
         <f>'[1]1,000'!$D65</f>
         <v>2</v>
       </c>
-      <c r="AC67">
+      <c r="AO67">
         <f>'[1]10,000'!$D65</f>
         <v>3</v>
       </c>
-      <c r="AD67">
+      <c r="AP67">
         <f>'[1]100,000'!$E65</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -14072,56 +15797,70 @@
       <c r="L68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q68">
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="AC68">
         <f>'[3]100'!$D66</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R68">
+      <c r="AD68">
         <f>'[3]1,000'!$D66</f>
         <v>3</v>
       </c>
-      <c r="S68">
+      <c r="AE68">
         <f>'[3]10,000'!$D66</f>
         <v>3</v>
       </c>
-      <c r="T68">
+      <c r="AF68">
         <f>'[3]100,000'!$E66</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V68">
+      <c r="AH68">
         <f>'[2]100'!$D66</f>
         <v>2</v>
       </c>
-      <c r="W68">
+      <c r="AI68">
         <f>'[2]1,000'!$D66</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X68">
+      <c r="AJ68">
         <f>'[2]10,000'!$D66</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y68">
+      <c r="AK68">
         <f>'[2]100,000'!$E66</f>
         <v>3</v>
       </c>
-      <c r="AA68">
+      <c r="AM68">
         <f>'[1]100'!$D66</f>
         <v>3</v>
       </c>
-      <c r="AB68">
+      <c r="AN68">
         <f>'[1]1,000'!$D66</f>
         <v>3</v>
       </c>
-      <c r="AC68">
+      <c r="AO68">
         <f>'[1]10,000'!$D66</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD68">
+      <c r="AP68">
         <f>'[1]100,000'!$E66</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>C78</f>
+        <v>3.4834792138942077E-41</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
@@ -14149,56 +15888,66 @@
       <c r="L69" s="1">
         <v>2.0670000000000002</v>
       </c>
-      <c r="Q69">
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="AC69">
         <f>'[3]100'!$D67</f>
         <v>4</v>
       </c>
-      <c r="R69">
+      <c r="AD69">
         <f>'[3]1,000'!$D67</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="S69">
+      <c r="AE69">
         <f>'[3]10,000'!$D67</f>
         <v>3</v>
       </c>
-      <c r="T69">
+      <c r="AF69">
         <f>'[3]100,000'!$E67</f>
         <v>3</v>
       </c>
-      <c r="V69">
+      <c r="AH69">
         <f>'[2]100'!$D67</f>
         <v>3</v>
       </c>
-      <c r="W69">
+      <c r="AI69">
         <f>'[2]1,000'!$D67</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X69">
+      <c r="AJ69">
         <f>'[2]10,000'!$D67</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y69">
+      <c r="AK69">
         <f>'[2]100,000'!$E67</f>
         <v>3</v>
       </c>
-      <c r="AA69">
+      <c r="AM69">
         <f>'[1]100'!$D67</f>
         <v>3</v>
       </c>
-      <c r="AB69">
+      <c r="AN69">
         <f>'[1]1,000'!$D67</f>
         <v>3</v>
       </c>
-      <c r="AC69">
+      <c r="AO69">
         <f>'[1]10,000'!$D67</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD69">
+      <c r="AP69">
         <f>'[1]100,000'!$E67</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
@@ -14226,56 +15975,66 @@
       <c r="L70" s="1">
         <v>1.0738183818381839</v>
       </c>
-      <c r="Q70">
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="AC70">
         <f>'[3]100'!$D68</f>
         <v>4</v>
       </c>
-      <c r="R70">
+      <c r="AD70">
         <f>'[3]1,000'!$D68</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S70">
+      <c r="AE70">
         <f>'[3]10,000'!$D68</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T70">
+      <c r="AF70">
         <f>'[3]100,000'!$E68</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="V70">
+      <c r="AH70">
         <f>'[2]100'!$D68</f>
         <v>3</v>
       </c>
-      <c r="W70">
+      <c r="AI70">
         <f>'[2]1,000'!$D68</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X70">
+      <c r="AJ70">
         <f>'[2]10,000'!$D68</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y70">
+      <c r="AK70">
         <f>'[2]100,000'!$E68</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA70">
+      <c r="AM70">
         <f>'[1]100'!$D68</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB70">
+      <c r="AN70">
         <f>'[1]1,000'!$D68</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC70">
+      <c r="AO70">
         <f>'[1]10,000'!$D68</f>
         <v>2</v>
       </c>
-      <c r="AD70">
+      <c r="AP70">
         <f>'[1]100,000'!$E68</f>
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
@@ -14303,56 +16062,66 @@
       <c r="L71" s="1">
         <v>10000</v>
       </c>
-      <c r="Q71">
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="AC71">
         <f>'[3]100'!$D69</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R71">
+      <c r="AD71">
         <f>'[3]1,000'!$D69</f>
         <v>2</v>
       </c>
-      <c r="S71">
+      <c r="AE71">
         <f>'[3]10,000'!$D69</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T71">
+      <c r="AF71">
         <f>'[3]100,000'!$E69</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V71">
+      <c r="AH71">
         <f>'[2]100'!$D69</f>
         <v>3</v>
       </c>
-      <c r="W71">
+      <c r="AI71">
         <f>'[2]1,000'!$D69</f>
         <v>3</v>
       </c>
-      <c r="X71">
+      <c r="AJ71">
         <f>'[2]10,000'!$D69</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y71">
+      <c r="AK71">
         <f>'[2]100,000'!$E69</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA71">
+      <c r="AM71">
         <f>'[1]100'!$D69</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AB71">
+      <c r="AN71">
         <f>'[1]1,000'!$D69</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC71">
+      <c r="AO71">
         <f>'[1]10,000'!$D69</f>
         <v>2</v>
       </c>
-      <c r="AD71">
+      <c r="AP71">
         <f>'[1]100,000'!$E69</f>
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>39</v>
       </c>
@@ -14376,56 +16145,66 @@
       <c r="L72" s="1">
         <v>9999</v>
       </c>
-      <c r="Q72">
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="AC72">
         <f>'[3]100'!$D70</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R72">
+      <c r="AD72">
         <f>'[3]1,000'!$D70</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S72">
+      <c r="AE72">
         <f>'[3]10,000'!$D70</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T72">
+      <c r="AF72">
         <f>'[3]100,000'!$E70</f>
         <v>3</v>
       </c>
-      <c r="V72">
+      <c r="AH72">
         <f>'[2]100'!$D70</f>
         <v>3</v>
       </c>
-      <c r="W72">
+      <c r="AI72">
         <f>'[2]1,000'!$D70</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X72">
+      <c r="AJ72">
         <f>'[2]10,000'!$D70</f>
         <v>3</v>
       </c>
-      <c r="Y72">
+      <c r="AK72">
         <f>'[2]100,000'!$E70</f>
         <v>3</v>
       </c>
-      <c r="AA72">
+      <c r="AM72">
         <f>'[1]100'!$D70</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AB72">
+      <c r="AN72">
         <f>'[1]1,000'!$D70</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC72">
+      <c r="AO72">
         <f>'[1]10,000'!$D70</f>
         <v>4</v>
       </c>
-      <c r="AD72">
+      <c r="AP72">
         <f>'[1]100,000'!$E70</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
@@ -14447,56 +16226,66 @@
         <v>0.88969079202876755</v>
       </c>
       <c r="L73" s="1"/>
-      <c r="Q73">
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="AC73">
         <f>'[3]100'!$D71</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R73">
+      <c r="AD73">
         <f>'[3]1,000'!$D71</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S73">
+      <c r="AE73">
         <f>'[3]10,000'!$D71</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T73">
+      <c r="AF73">
         <f>'[3]100,000'!$E71</f>
         <v>3</v>
       </c>
-      <c r="V73">
+      <c r="AH73">
         <f>'[2]100'!$D71</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W73">
+      <c r="AI73">
         <f>'[2]1,000'!$D71</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X73">
+      <c r="AJ73">
         <f>'[2]10,000'!$D71</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y73">
+      <c r="AK73">
         <f>'[2]100,000'!$E71</f>
         <v>3</v>
       </c>
-      <c r="AA73">
+      <c r="AM73">
         <f>'[1]100'!$D71</f>
         <v>3</v>
       </c>
-      <c r="AB73">
+      <c r="AN73">
         <f>'[1]1,000'!$D71</f>
         <v>3</v>
       </c>
-      <c r="AC73">
+      <c r="AO73">
         <f>'[1]10,000'!$D71</f>
         <v>3</v>
       </c>
-      <c r="AD73">
+      <c r="AP73">
         <f>'[1]100,000'!$E71</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
@@ -14518,56 +16307,66 @@
         <v>2.5794335556383885E-9</v>
       </c>
       <c r="L74" s="1"/>
-      <c r="Q74">
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="AC74">
         <f>'[3]100'!$D72</f>
         <v>3</v>
       </c>
-      <c r="R74">
+      <c r="AD74">
         <f>'[3]1,000'!$D72</f>
         <v>3</v>
       </c>
-      <c r="S74">
+      <c r="AE74">
         <f>'[3]10,000'!$D72</f>
         <v>3</v>
       </c>
-      <c r="T74">
+      <c r="AF74">
         <f>'[3]100,000'!$E72</f>
         <v>3</v>
       </c>
-      <c r="V74">
+      <c r="AH74">
         <f>'[2]100'!$D72</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W74">
+      <c r="AI74">
         <f>'[2]1,000'!$D72</f>
         <v>2</v>
       </c>
-      <c r="X74">
+      <c r="AJ74">
         <f>'[2]10,000'!$D72</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y74">
+      <c r="AK74">
         <f>'[2]100,000'!$E72</f>
         <v>3</v>
       </c>
-      <c r="AA74">
+      <c r="AM74">
         <f>'[1]100'!$D72</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AB74">
+      <c r="AN74">
         <f>'[1]1,000'!$D72</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC74">
+      <c r="AO74">
         <f>'[1]10,000'!$D72</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD74">
+      <c r="AP74">
         <f>'[1]100,000'!$E72</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
@@ -14589,56 +16388,66 @@
         <v>0.96763504547386503</v>
       </c>
       <c r="L75" s="2"/>
-      <c r="Q75">
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="AC75">
         <f>'[3]100'!$D73</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R75">
+      <c r="AD75">
         <f>'[3]1,000'!$D73</f>
         <v>3</v>
       </c>
-      <c r="S75">
+      <c r="AE75">
         <f>'[3]10,000'!$D73</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T75">
+      <c r="AF75">
         <f>'[3]100,000'!$E73</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V75">
+      <c r="AH75">
         <f>'[2]100'!$D73</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W75">
+      <c r="AI75">
         <f>'[2]1,000'!$D73</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X75">
+      <c r="AJ75">
         <f>'[2]10,000'!$D73</f>
         <v>2</v>
       </c>
-      <c r="Y75">
+      <c r="AK75">
         <f>'[2]100,000'!$E73</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AA75">
+      <c r="AM75">
         <f>'[1]100'!$D73</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB75">
+      <c r="AN75">
         <f>'[1]1,000'!$D73</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC75">
+      <c r="AO75">
         <f>'[1]10,000'!$D73</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD75">
+      <c r="AP75">
         <f>'[1]100,000'!$E73</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
@@ -14653,56 +16462,56 @@
         <v>1.6449300865802226</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="Q76">
+      <c r="AC76">
         <f>'[3]100'!$D74</f>
         <v>3</v>
       </c>
-      <c r="R76">
+      <c r="AD76">
         <f>'[3]1,000'!$D74</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S76">
+      <c r="AE76">
         <f>'[3]10,000'!$D74</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T76">
+      <c r="AF76">
         <f>'[3]100,000'!$E74</f>
         <v>3</v>
       </c>
-      <c r="V76">
+      <c r="AH76">
         <f>'[2]100'!$D74</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W76">
+      <c r="AI76">
         <f>'[2]1,000'!$D74</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X76">
+      <c r="AJ76">
         <f>'[2]10,000'!$D74</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y76">
+      <c r="AK76">
         <f>'[2]100,000'!$E74</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA76">
+      <c r="AM76">
         <f>'[1]100'!$D74</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB76">
+      <c r="AN76">
         <f>'[1]1,000'!$D74</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC76">
+      <c r="AO76">
         <f>'[1]10,000'!$D74</f>
         <v>3</v>
       </c>
-      <c r="AD76">
+      <c r="AP76">
         <f>'[1]100,000'!$E74</f>
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
@@ -14717,56 +16526,56 @@
         <v>3.4883707959623899E-41</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="Q77">
+      <c r="AC77">
         <f>'[3]100'!$D75</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R77">
+      <c r="AD77">
         <f>'[3]1,000'!$D75</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S77">
+      <c r="AE77">
         <f>'[3]10,000'!$D75</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T77">
+      <c r="AF77">
         <f>'[3]100,000'!$E75</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V77">
+      <c r="AH77">
         <f>'[2]100'!$D75</f>
         <v>3</v>
       </c>
-      <c r="W77">
+      <c r="AI77">
         <f>'[2]1,000'!$D75</f>
         <v>2</v>
       </c>
-      <c r="X77">
+      <c r="AJ77">
         <f>'[2]10,000'!$D75</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y77">
+      <c r="AK77">
         <f>'[2]100,000'!$E75</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA77">
+      <c r="AM77">
         <f>'[1]100'!$D75</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AB77">
+      <c r="AN77">
         <f>'[1]1,000'!$D75</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC77">
+      <c r="AO77">
         <f>'[1]10,000'!$D75</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD77">
+      <c r="AP77">
         <f>'[1]100,000'!$E75</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>10</v>
       </c>
@@ -14781,56 +16590,56 @@
         <v>1.9600830218130414</v>
       </c>
       <c r="H78" s="2"/>
-      <c r="Q78">
+      <c r="AC78">
         <f>'[3]100'!$D76</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R78">
+      <c r="AD78">
         <f>'[3]1,000'!$D76</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S78">
+      <c r="AE78">
         <f>'[3]10,000'!$D76</f>
         <v>3</v>
       </c>
-      <c r="T78">
+      <c r="AF78">
         <f>'[3]100,000'!$E76</f>
         <v>3</v>
       </c>
-      <c r="V78">
+      <c r="AH78">
         <f>'[2]100'!$D76</f>
         <v>3</v>
       </c>
-      <c r="W78">
+      <c r="AI78">
         <f>'[2]1,000'!$D76</f>
         <v>3</v>
       </c>
-      <c r="X78">
+      <c r="AJ78">
         <f>'[2]10,000'!$D76</f>
         <v>3</v>
       </c>
-      <c r="Y78">
+      <c r="AK78">
         <f>'[2]100,000'!$E76</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA78">
+      <c r="AM78">
         <f>'[1]100'!$D76</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB78">
+      <c r="AN78">
         <f>'[1]1,000'!$D76</f>
         <v>3</v>
       </c>
-      <c r="AC78">
+      <c r="AO78">
         <f>'[1]10,000'!$D76</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD78">
+      <c r="AP78">
         <f>'[1]100,000'!$E76</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>11</v>
       </c>
@@ -14838,1251 +16647,1436 @@
         <v>1.9600826170210905</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="Q79">
+      <c r="AC79">
         <f>'[3]100'!$D77</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R79">
+      <c r="AD79">
         <f>'[3]1,000'!$D77</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S79">
+      <c r="AE79">
         <f>'[3]10,000'!$D77</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T79">
+      <c r="AF79">
         <f>'[3]100,000'!$E77</f>
         <v>3</v>
       </c>
-      <c r="V79">
+      <c r="AH79">
         <f>'[2]100'!$D77</f>
         <v>4</v>
       </c>
-      <c r="W79">
+      <c r="AI79">
         <f>'[2]1,000'!$D77</f>
         <v>2</v>
       </c>
-      <c r="X79">
+      <c r="AJ79">
         <f>'[2]10,000'!$D77</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y79">
+      <c r="AK79">
         <f>'[2]100,000'!$E77</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA79">
+      <c r="AM79">
         <f>'[1]100'!$D77</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB79">
+      <c r="AN79">
         <f>'[1]1,000'!$D77</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC79">
+      <c r="AO79">
         <f>'[1]10,000'!$D77</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD79">
+      <c r="AP79">
         <f>'[1]100,000'!$E77</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q80">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC80">
         <f>'[3]100'!$D78</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R80">
+      <c r="AD80">
         <f>'[3]1,000'!$D78</f>
         <v>4</v>
       </c>
-      <c r="S80">
+      <c r="AE80">
         <f>'[3]10,000'!$D78</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T80">
+      <c r="AF80">
         <f>'[3]100,000'!$E78</f>
         <v>4</v>
       </c>
-      <c r="V80">
+      <c r="AH80">
         <f>'[2]100'!$D78</f>
         <v>3</v>
       </c>
-      <c r="W80">
+      <c r="AI80">
         <f>'[2]1,000'!$D78</f>
         <v>3</v>
       </c>
-      <c r="X80">
+      <c r="AJ80">
         <f>'[2]10,000'!$D78</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y80">
+      <c r="AK80">
         <f>'[2]100,000'!$E78</f>
         <v>3</v>
       </c>
-      <c r="AA80">
+      <c r="AM80">
         <f>'[1]100'!$D78</f>
         <v>4</v>
       </c>
-      <c r="AB80">
+      <c r="AN80">
         <f>'[1]1,000'!$D78</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC80">
+      <c r="AO80">
         <f>'[1]10,000'!$D78</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD80">
+      <c r="AP80">
         <f>'[1]100,000'!$E78</f>
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q81">
+    <row r="81" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC81">
         <f>'[3]100'!$D79</f>
         <v>3</v>
       </c>
-      <c r="R81">
+      <c r="AD81">
         <f>'[3]1,000'!$D79</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S81">
+      <c r="AE81">
         <f>'[3]10,000'!$D79</f>
         <v>3</v>
       </c>
-      <c r="T81">
+      <c r="AF81">
         <f>'[3]100,000'!$E79</f>
         <v>3</v>
       </c>
-      <c r="V81">
+      <c r="AH81">
         <f>'[2]100'!$D79</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W81">
+      <c r="AI81">
         <f>'[2]1,000'!$D79</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="X81">
+      <c r="AJ81">
         <f>'[2]10,000'!$D79</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y81">
+      <c r="AK81">
         <f>'[2]100,000'!$E79</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA81">
+      <c r="AM81">
         <f>'[1]100'!$D79</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB81">
+      <c r="AN81">
         <f>'[1]1,000'!$D79</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC81">
+      <c r="AO81">
         <f>'[1]10,000'!$D79</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD81">
+      <c r="AP81">
         <f>'[1]100,000'!$E79</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="82" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q82">
+    <row r="82" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC82">
         <f>'[3]100'!$D80</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R82">
+      <c r="AD82">
         <f>'[3]1,000'!$D80</f>
         <v>3</v>
       </c>
-      <c r="S82">
+      <c r="AE82">
         <f>'[3]10,000'!$D80</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T82">
+      <c r="AF82">
         <f>'[3]100,000'!$E80</f>
         <v>4</v>
       </c>
-      <c r="V82">
+      <c r="AH82">
         <f>'[2]100'!$D80</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W82">
+      <c r="AI82">
         <f>'[2]1,000'!$D80</f>
         <v>3</v>
       </c>
-      <c r="X82">
+      <c r="AJ82">
         <f>'[2]10,000'!$D80</f>
         <v>2</v>
       </c>
-      <c r="Y82">
+      <c r="AK82">
         <f>'[2]100,000'!$E80</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA82">
+      <c r="AM82">
         <f>'[1]100'!$D80</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB82">
+      <c r="AN82">
         <f>'[1]1,000'!$D80</f>
         <v>3</v>
       </c>
-      <c r="AC82">
+      <c r="AO82">
         <f>'[1]10,000'!$D80</f>
         <v>3</v>
       </c>
-      <c r="AD82">
+      <c r="AP82">
         <f>'[1]100,000'!$E80</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="83" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q83">
+    <row r="83" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC83">
         <f>'[3]100'!$D81</f>
         <v>3</v>
       </c>
-      <c r="R83">
+      <c r="AD83">
         <f>'[3]1,000'!$D81</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S83">
+      <c r="AE83">
         <f>'[3]10,000'!$D81</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T83">
+      <c r="AF83">
         <f>'[3]100,000'!$E81</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V83">
+      <c r="AH83">
         <f>'[2]100'!$D81</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W83">
+      <c r="AI83">
         <f>'[2]1,000'!$D81</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X83">
+      <c r="AJ83">
         <f>'[2]10,000'!$D81</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y83">
+      <c r="AK83">
         <f>'[2]100,000'!$E81</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AA83">
+      <c r="AM83">
         <f>'[1]100'!$D81</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AB83">
+      <c r="AN83">
         <f>'[1]1,000'!$D81</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC83">
+      <c r="AO83">
         <f>'[1]10,000'!$D81</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AD83">
+      <c r="AP83">
         <f>'[1]100,000'!$E81</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="84" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q84">
+    <row r="84" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2.2589000000000001</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2.2589000000000001</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="AC84">
         <f>'[3]100'!$D82</f>
         <v>3</v>
       </c>
-      <c r="R84">
+      <c r="AD84">
         <f>'[3]1,000'!$D82</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S84">
+      <c r="AE84">
         <f>'[3]10,000'!$D82</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T84">
+      <c r="AF84">
         <f>'[3]100,000'!$E82</f>
         <v>3</v>
       </c>
-      <c r="V84">
+      <c r="AH84">
         <f>'[2]100'!$D82</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W84">
+      <c r="AI84">
         <f>'[2]1,000'!$D82</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="X84">
+      <c r="AJ84">
         <f>'[2]10,000'!$D82</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y84">
+      <c r="AK84">
         <f>'[2]100,000'!$E82</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA84">
+      <c r="AM84">
         <f>'[1]100'!$D82</f>
         <v>3</v>
       </c>
-      <c r="AB84">
+      <c r="AN84">
         <f>'[1]1,000'!$D82</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC84">
+      <c r="AO84">
         <f>'[1]10,000'!$D82</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD84">
+      <c r="AP84">
         <f>'[1]100,000'!$E82</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="85" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q85">
+    <row r="85" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.95536632663266341</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1.0738183818381839</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.95536632663266341</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1.0738183818381839</v>
+      </c>
+      <c r="AC85">
         <f>'[3]100'!$D83</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R85">
+      <c r="AD85">
         <f>'[3]1,000'!$D83</f>
         <v>3</v>
       </c>
-      <c r="S85">
+      <c r="AE85">
         <f>'[3]10,000'!$D83</f>
         <v>3</v>
       </c>
-      <c r="T85">
+      <c r="AF85">
         <f>'[3]100,000'!$E83</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="V85">
+      <c r="AH85">
         <f>'[2]100'!$D83</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W85">
+      <c r="AI85">
         <f>'[2]1,000'!$D83</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X85">
+      <c r="AJ85">
         <f>'[2]10,000'!$D83</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y85">
+      <c r="AK85">
         <f>'[2]100,000'!$E83</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA85">
+      <c r="AM85">
         <f>'[1]100'!$D83</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB85">
+      <c r="AN85">
         <f>'[1]1,000'!$D83</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC85">
+      <c r="AO85">
         <f>'[1]10,000'!$D83</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD85">
+      <c r="AP85">
         <f>'[1]100,000'!$E83</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="86" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q86">
+    <row r="86" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AC86">
         <f>'[3]100'!$D84</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R86">
+      <c r="AD86">
         <f>'[3]1,000'!$D84</f>
         <v>3</v>
       </c>
-      <c r="S86">
+      <c r="AE86">
         <f>'[3]10,000'!$D84</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T86">
+      <c r="AF86">
         <f>'[3]100,000'!$E84</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="V86">
+      <c r="AH86">
         <f>'[2]100'!$D84</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="W86">
+      <c r="AI86">
         <f>'[2]1,000'!$D84</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X86">
+      <c r="AJ86">
         <f>'[2]10,000'!$D84</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y86">
+      <c r="AK86">
         <f>'[2]100,000'!$E84</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA86">
+      <c r="AM86">
         <f>'[1]100'!$D84</f>
         <v>3</v>
       </c>
-      <c r="AB86">
+      <c r="AN86">
         <f>'[1]1,000'!$D84</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC86">
+      <c r="AO86">
         <f>'[1]10,000'!$D84</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD86">
+      <c r="AP86">
         <f>'[1]100,000'!$E84</f>
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q87">
+    <row r="87" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.0145923542354236</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="8">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="AC87">
         <f>'[3]100'!$D85</f>
         <v>3</v>
       </c>
-      <c r="R87">
+      <c r="AD87">
         <f>'[3]1,000'!$D85</f>
         <v>3</v>
       </c>
-      <c r="S87">
+      <c r="AE87">
         <f>'[3]10,000'!$D85</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T87">
+      <c r="AF87">
         <f>'[3]100,000'!$E85</f>
         <v>3</v>
       </c>
-      <c r="V87">
+      <c r="AH87">
         <f>'[2]100'!$D85</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W87">
+      <c r="AI87">
         <f>'[2]1,000'!$D85</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X87">
+      <c r="AJ87">
         <f>'[2]10,000'!$D85</f>
         <v>3</v>
       </c>
-      <c r="Y87">
+      <c r="AK87">
         <f>'[2]100,000'!$E85</f>
         <v>4</v>
       </c>
-      <c r="AA87">
+      <c r="AM87">
         <f>'[1]100'!$D85</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB87">
+      <c r="AN87">
         <f>'[1]1,000'!$D85</f>
         <v>3</v>
       </c>
-      <c r="AC87">
+      <c r="AO87">
         <f>'[1]10,000'!$D85</f>
         <v>3</v>
       </c>
-      <c r="AD87">
+      <c r="AP87">
         <f>'[1]100,000'!$E85</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="88" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q88">
+    <row r="88" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="1">
+        <v>19930</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="AC88">
         <f>'[3]100'!$D86</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R88">
+      <c r="AD88">
         <f>'[3]1,000'!$D86</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S88">
+      <c r="AE88">
         <f>'[3]10,000'!$D86</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="T88">
+      <c r="AF88">
         <f>'[3]100,000'!$E86</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V88">
+      <c r="AH88">
         <f>'[2]100'!$D86</f>
         <v>4</v>
       </c>
-      <c r="W88">
+      <c r="AI88">
         <f>'[2]1,000'!$D86</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X88">
+      <c r="AJ88">
         <f>'[2]10,000'!$D86</f>
         <v>3</v>
       </c>
-      <c r="Y88">
+      <c r="AK88">
         <f>'[2]100,000'!$E86</f>
         <v>3</v>
       </c>
-      <c r="AA88">
+      <c r="AM88">
         <f>'[1]100'!$D86</f>
         <v>3</v>
       </c>
-      <c r="AB88">
+      <c r="AN88">
         <f>'[1]1,000'!$D86</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC88">
+      <c r="AO88">
         <f>'[1]10,000'!$D86</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD88">
+      <c r="AP88">
         <f>'[1]100,000'!$E86</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="89" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q89">
+    <row r="89" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1">
+        <v>19998</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="1">
+        <v>9.1260440740017365E-2</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="AC89">
         <f>'[3]100'!$D87</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R89">
+      <c r="AD89">
         <f>'[3]1,000'!$D87</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S89">
+      <c r="AE89">
         <f>'[3]10,000'!$D87</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T89">
+      <c r="AF89">
         <f>'[3]100,000'!$E87</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V89">
+      <c r="AH89">
         <f>'[2]100'!$D87</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W89">
+      <c r="AI89">
         <f>'[2]1,000'!$D87</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X89">
+      <c r="AJ89">
         <f>'[2]10,000'!$D87</f>
         <v>2</v>
       </c>
-      <c r="Y89">
+      <c r="AK89">
         <f>'[2]100,000'!$E87</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA89">
+      <c r="AM89">
         <f>'[1]100'!$D87</f>
         <v>3</v>
       </c>
-      <c r="AB89">
+      <c r="AN89">
         <f>'[1]1,000'!$D87</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AC89">
+      <c r="AO89">
         <f>'[1]10,000'!$D87</f>
         <v>3</v>
       </c>
-      <c r="AD89">
+      <c r="AP89">
         <f>'[1]100,000'!$E87</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="90" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q90">
+    <row r="90" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9.1260440740017365E-2</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.46364328382637326</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="AC90">
         <f>'[3]100'!$D88</f>
         <v>3</v>
       </c>
-      <c r="R90">
+      <c r="AD90">
         <f>'[3]1,000'!$D88</f>
         <v>3</v>
       </c>
-      <c r="S90">
+      <c r="AE90">
         <f>'[3]10,000'!$D88</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T90">
+      <c r="AF90">
         <f>'[3]100,000'!$E88</f>
         <v>3</v>
       </c>
-      <c r="V90">
+      <c r="AH90">
         <f>'[2]100'!$D88</f>
         <v>2</v>
       </c>
-      <c r="W90">
+      <c r="AI90">
         <f>'[2]1,000'!$D88</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="X90">
+      <c r="AJ90">
         <f>'[2]10,000'!$D88</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y90">
+      <c r="AK90">
         <f>'[2]100,000'!$E88</f>
         <v>3</v>
       </c>
-      <c r="AA90">
+      <c r="AM90">
         <f>'[1]100'!$D88</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB90">
+      <c r="AN90">
         <f>'[1]1,000'!$D88</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC90">
+      <c r="AO90">
         <f>'[1]10,000'!$D88</f>
         <v>3</v>
       </c>
-      <c r="AD90">
+      <c r="AP90">
         <f>'[1]100,000'!$E88</f>
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q91">
+    <row r="91" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.46364328226705148</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1.6449300865802226</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="AC91">
         <f>'[3]100'!$D89</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="R91">
+      <c r="AD91">
         <f>'[3]1,000'!$D89</f>
         <v>3</v>
       </c>
-      <c r="S91">
+      <c r="AE91">
         <f>'[3]10,000'!$D89</f>
         <v>3</v>
       </c>
-      <c r="T91">
+      <c r="AF91">
         <f>'[3]100,000'!$E89</f>
         <v>3</v>
       </c>
-      <c r="V91">
+      <c r="AH91">
         <f>'[2]100'!$D89</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W91">
+      <c r="AI91">
         <f>'[2]1,000'!$D89</f>
         <v>3</v>
       </c>
-      <c r="X91">
+      <c r="AJ91">
         <f>'[2]10,000'!$D89</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y91">
+      <c r="AK91">
         <f>'[2]100,000'!$E89</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA91">
+      <c r="AM91">
         <f>'[1]100'!$D89</f>
         <v>3</v>
       </c>
-      <c r="AB91">
+      <c r="AN91">
         <f>'[1]1,000'!$D89</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC91">
+      <c r="AO91">
         <f>'[1]10,000'!$D89</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD91">
+      <c r="AP91">
         <f>'[1]100,000'!$E89</f>
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q92">
+    <row r="92" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.6449298265801919</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.92728656765274653</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="AC92">
         <f>'[3]100'!$D90</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="R92">
+      <c r="AD92">
         <f>'[3]1,000'!$D90</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S92">
+      <c r="AE92">
         <f>'[3]10,000'!$D90</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T92">
+      <c r="AF92">
         <f>'[3]100,000'!$E90</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V92">
+      <c r="AH92">
         <f>'[2]100'!$D90</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W92">
+      <c r="AI92">
         <f>'[2]1,000'!$D90</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X92">
+      <c r="AJ92">
         <f>'[2]10,000'!$D90</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="Y92">
+      <c r="AK92">
         <f>'[2]100,000'!$E90</f>
         <v>3</v>
       </c>
-      <c r="AA92">
+      <c r="AM92">
         <f>'[1]100'!$D90</f>
         <v>3</v>
       </c>
-      <c r="AB92">
+      <c r="AN92">
         <f>'[1]1,000'!$D90</f>
         <v>3</v>
       </c>
-      <c r="AC92">
+      <c r="AO92">
         <f>'[1]10,000'!$D90</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD92">
+      <c r="AP92">
         <f>'[1]100,000'!$E90</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="93" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q93">
+    <row r="93" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.92728656453410296</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="F93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1.9600830218130414</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="AC93">
         <f>'[3]100'!$D91</f>
         <v>3</v>
       </c>
-      <c r="R93">
+      <c r="AD93">
         <f>'[3]1,000'!$D91</f>
         <v>3</v>
       </c>
-      <c r="S93">
+      <c r="AE93">
         <f>'[3]10,000'!$D91</f>
         <v>3</v>
       </c>
-      <c r="T93">
+      <c r="AF93">
         <f>'[3]100,000'!$E91</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V93">
+      <c r="AH93">
         <f>'[2]100'!$D91</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W93">
+      <c r="AI93">
         <f>'[2]1,000'!$D91</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="X93">
+      <c r="AJ93">
         <f>'[2]10,000'!$D91</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y93">
+      <c r="AK93">
         <f>'[2]100,000'!$E91</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA93">
+      <c r="AM93">
         <f>'[1]100'!$D91</f>
         <v>3</v>
       </c>
-      <c r="AB93">
+      <c r="AN93">
         <f>'[1]1,000'!$D91</f>
         <v>3</v>
       </c>
-      <c r="AC93">
+      <c r="AO93">
         <f>'[1]10,000'!$D91</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD93">
+      <c r="AP93">
         <f>'[1]100,000'!$E91</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="94" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q94">
+    <row r="94" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1.9600826170210905</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="AC94">
         <f>'[3]100'!$D92</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R94">
+      <c r="AD94">
         <f>'[3]1,000'!$D92</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S94">
+      <c r="AE94">
         <f>'[3]10,000'!$D92</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T94">
+      <c r="AF94">
         <f>'[3]100,000'!$E92</f>
         <v>3</v>
       </c>
-      <c r="V94">
+      <c r="AH94">
         <f>'[2]100'!$D92</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W94">
+      <c r="AI94">
         <f>'[2]1,000'!$D92</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X94">
+      <c r="AJ94">
         <f>'[2]10,000'!$D92</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="Y94">
+      <c r="AK94">
         <f>'[2]100,000'!$E92</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AA94">
+      <c r="AM94">
         <f>'[1]100'!$D92</f>
         <v>4</v>
       </c>
-      <c r="AB94">
+      <c r="AN94">
         <f>'[1]1,000'!$D92</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC94">
+      <c r="AO94">
         <f>'[1]10,000'!$D92</f>
         <v>3</v>
       </c>
-      <c r="AD94">
+      <c r="AP94">
         <f>'[1]100,000'!$E92</f>
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q95">
+    <row r="95" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AC95">
         <f>'[3]100'!$D93</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="R95">
+      <c r="AD95">
         <f>'[3]1,000'!$D93</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="S95">
+      <c r="AE95">
         <f>'[3]10,000'!$D93</f>
         <v>3</v>
       </c>
-      <c r="T95">
+      <c r="AF95">
         <f>'[3]100,000'!$E93</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V95">
+      <c r="AH95">
         <f>'[2]100'!$D93</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W95">
+      <c r="AI95">
         <f>'[2]1,000'!$D93</f>
         <v>3</v>
       </c>
-      <c r="X95">
+      <c r="AJ95">
         <f>'[2]10,000'!$D93</f>
         <v>3</v>
       </c>
-      <c r="Y95">
+      <c r="AK95">
         <f>'[2]100,000'!$E93</f>
         <v>3</v>
       </c>
-      <c r="AA95">
+      <c r="AM95">
         <f>'[1]100'!$D93</f>
         <v>3</v>
       </c>
-      <c r="AB95">
+      <c r="AN95">
         <f>'[1]1,000'!$D93</f>
         <v>3</v>
       </c>
-      <c r="AC95">
+      <c r="AO95">
         <f>'[1]10,000'!$D93</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD95">
+      <c r="AP95">
         <f>'[1]100,000'!$E93</f>
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q96">
+    <row r="96" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AC96">
         <f>'[3]100'!$D94</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R96">
+      <c r="AD96">
         <f>'[3]1,000'!$D94</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="S96">
+      <c r="AE96">
         <f>'[3]10,000'!$D94</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T96">
+      <c r="AF96">
         <f>'[3]100,000'!$E94</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="V96">
+      <c r="AH96">
         <f>'[2]100'!$D94</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W96">
+      <c r="AI96">
         <f>'[2]1,000'!$D94</f>
         <v>3</v>
       </c>
-      <c r="X96">
+      <c r="AJ96">
         <f>'[2]10,000'!$D94</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y96">
+      <c r="AK96">
         <f>'[2]100,000'!$E94</f>
         <v>3</v>
       </c>
-      <c r="AA96">
+      <c r="AM96">
         <f>'[1]100'!$D94</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AB96">
+      <c r="AN96">
         <f>'[1]1,000'!$D94</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AC96">
+      <c r="AO96">
         <f>'[1]10,000'!$D94</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD96">
+      <c r="AP96">
         <f>'[1]100,000'!$E94</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="97" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q97">
+    <row r="97" spans="29:42" x14ac:dyDescent="0.25">
+      <c r="AC97">
         <f>'[3]100'!$D95</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R97">
+      <c r="AD97">
         <f>'[3]1,000'!$D95</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S97">
+      <c r="AE97">
         <f>'[3]10,000'!$D95</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T97">
+      <c r="AF97">
         <f>'[3]100,000'!$E95</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="V97">
+      <c r="AH97">
         <f>'[2]100'!$D95</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W97">
+      <c r="AI97">
         <f>'[2]1,000'!$D95</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X97">
+      <c r="AJ97">
         <f>'[2]10,000'!$D95</f>
         <v>3</v>
       </c>
-      <c r="Y97">
+      <c r="AK97">
         <f>'[2]100,000'!$E95</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA97">
+      <c r="AM97">
         <f>'[1]100'!$D95</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AB97">
+      <c r="AN97">
         <f>'[1]1,000'!$D95</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="AC97">
+      <c r="AO97">
         <f>'[1]10,000'!$D95</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD97">
+      <c r="AP97">
         <f>'[1]100,000'!$E95</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="98" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q98">
+    <row r="98" spans="29:42" x14ac:dyDescent="0.25">
+      <c r="AC98">
         <f>'[3]100'!$D96</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="R98">
+      <c r="AD98">
         <f>'[3]1,000'!$D96</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S98">
+      <c r="AE98">
         <f>'[3]10,000'!$D96</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T98">
+      <c r="AF98">
         <f>'[3]100,000'!$E96</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="V98">
+      <c r="AH98">
         <f>'[2]100'!$D96</f>
         <v>3</v>
       </c>
-      <c r="W98">
+      <c r="AI98">
         <f>'[2]1,000'!$D96</f>
         <v>3</v>
       </c>
-      <c r="X98">
+      <c r="AJ98">
         <f>'[2]10,000'!$D96</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y98">
+      <c r="AK98">
         <f>'[2]100,000'!$E96</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AA98">
+      <c r="AM98">
         <f>'[1]100'!$D96</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB98">
+      <c r="AN98">
         <f>'[1]1,000'!$D96</f>
         <v>3</v>
       </c>
-      <c r="AC98">
+      <c r="AO98">
         <f>'[1]10,000'!$D96</f>
         <v>3</v>
       </c>
-      <c r="AD98">
+      <c r="AP98">
         <f>'[1]100,000'!$E96</f>
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q99">
+    <row r="99" spans="29:42" x14ac:dyDescent="0.25">
+      <c r="AC99">
         <f>'[3]100'!$D97</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R99">
+      <c r="AD99">
         <f>'[3]1,000'!$D97</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="S99">
+      <c r="AE99">
         <f>'[3]10,000'!$D97</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T99">
+      <c r="AF99">
         <f>'[3]100,000'!$E97</f>
         <v>3</v>
       </c>
-      <c r="V99">
+      <c r="AH99">
         <f>'[2]100'!$D97</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W99">
+      <c r="AI99">
         <f>'[2]1,000'!$D97</f>
         <v>3</v>
       </c>
-      <c r="X99">
+      <c r="AJ99">
         <f>'[2]10,000'!$D97</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Y99">
+      <c r="AK99">
         <f>'[2]100,000'!$E97</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA99">
+      <c r="AM99">
         <f>'[1]100'!$D97</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AB99">
+      <c r="AN99">
         <f>'[1]1,000'!$D97</f>
         <v>3</v>
       </c>
-      <c r="AC99">
+      <c r="AO99">
         <f>'[1]10,000'!$D97</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AD99">
+      <c r="AP99">
         <f>'[1]100,000'!$E97</f>
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q100">
+    <row r="100" spans="29:42" x14ac:dyDescent="0.25">
+      <c r="AC100">
         <f>'[3]100'!$D98</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="R100">
+      <c r="AD100">
         <f>'[3]1,000'!$D98</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S100">
+      <c r="AE100">
         <f>'[3]10,000'!$D98</f>
         <v>3</v>
       </c>
-      <c r="T100">
+      <c r="AF100">
         <f>'[3]100,000'!$E98</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="V100">
+      <c r="AH100">
         <f>'[2]100'!$D98</f>
         <v>3</v>
       </c>
-      <c r="W100">
+      <c r="AI100">
         <f>'[2]1,000'!$D98</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="X100">
+      <c r="AJ100">
         <f>'[2]10,000'!$D98</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Y100">
+      <c r="AK100">
         <f>'[2]100,000'!$E98</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AA100">
+      <c r="AM100">
         <f>'[1]100'!$D98</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB100">
+      <c r="AN100">
         <f>'[1]1,000'!$D98</f>
         <v>3</v>
       </c>
-      <c r="AC100">
+      <c r="AO100">
         <f>'[1]10,000'!$D98</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AD100">
+      <c r="AP100">
         <f>'[1]100,000'!$E98</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="101" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q101">
+    <row r="101" spans="29:42" x14ac:dyDescent="0.25">
+      <c r="AC101">
         <f>'[3]100'!$D99</f>
         <v>3</v>
       </c>
-      <c r="R101">
+      <c r="AD101">
         <f>'[3]1,000'!$D99</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S101">
+      <c r="AE101">
         <f>'[3]10,000'!$D99</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T101">
+      <c r="AF101">
         <f>'[3]100,000'!$E99</f>
         <v>3</v>
       </c>
-      <c r="V101">
+      <c r="AH101">
         <f>'[2]100'!$D99</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W101">
+      <c r="AI101">
         <f>'[2]1,000'!$D99</f>
         <v>2</v>
       </c>
-      <c r="X101">
+      <c r="AJ101">
         <f>'[2]10,000'!$D99</f>
         <v>3</v>
       </c>
-      <c r="Y101">
+      <c r="AK101">
         <f>'[2]100,000'!$E99</f>
         <v>3</v>
       </c>
-      <c r="AA101">
+      <c r="AM101">
         <f>'[1]100'!$D99</f>
         <v>3</v>
       </c>
-      <c r="AB101">
+      <c r="AN101">
         <f>'[1]1,000'!$D99</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AC101">
+      <c r="AO101">
         <f>'[1]10,000'!$D99</f>
         <v>3</v>
       </c>
-      <c r="AD101">
+      <c r="AP101">
         <f>'[1]100,000'!$E99</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="102" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q102">
+    <row r="102" spans="29:42" x14ac:dyDescent="0.25">
+      <c r="AC102">
         <f>'[3]100'!$D100</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="R102">
+      <c r="AD102">
         <f>'[3]1,000'!$D100</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="S102">
+      <c r="AE102">
         <f>'[3]10,000'!$D100</f>
         <v>3</v>
       </c>
-      <c r="T102">
+      <c r="AF102">
         <f>'[3]100,000'!$E100</f>
         <v>3</v>
       </c>
-      <c r="V102">
+      <c r="AH102">
         <f>'[2]100'!$D100</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="W102">
+      <c r="AI102">
         <f>'[2]1,000'!$D100</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="X102">
+      <c r="AJ102">
         <f>'[2]10,000'!$D100</f>
         <v>4</v>
       </c>
-      <c r="Y102">
+      <c r="AK102">
         <f>'[2]100,000'!$E100</f>
         <v>3</v>
       </c>
-      <c r="AA102">
+      <c r="AM102">
         <f>'[1]100'!$D100</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AB102">
+      <c r="AN102">
         <f>'[1]1,000'!$D100</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AC102">
+      <c r="AO102">
         <f>'[1]10,000'!$D100</f>
         <v>3</v>
       </c>
-      <c r="AD102">
+      <c r="AP102">
         <f>'[1]100,000'!$E100</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="103" spans="17:30" x14ac:dyDescent="0.25">
-      <c r="Q103">
+    <row r="103" spans="29:42" x14ac:dyDescent="0.25">
+      <c r="AC103">
         <f>'[3]100'!$D101</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="R103">
+      <c r="AD103">
         <f>'[3]1,000'!$D101</f>
         <v>3</v>
       </c>
-      <c r="S103">
+      <c r="AE103">
         <f>'[3]10,000'!$D101</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="T103">
+      <c r="AF103">
         <f>'[3]100,000'!$E101</f>
         <v>3</v>
       </c>
-      <c r="V103">
+      <c r="AH103">
         <f>'[2]100'!$D101</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W103">
+      <c r="AI103">
         <f>'[2]1,000'!$D101</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="X103">
+      <c r="AJ103">
         <f>'[2]10,000'!$D101</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="Y103">
+      <c r="AK103">
         <f>'[2]100,000'!$E101</f>
         <v>3</v>
       </c>
-      <c r="AA103">
+      <c r="AM103">
         <f>'[1]100'!$D101</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AB103">
+      <c r="AN103">
         <f>'[1]1,000'!$D101</f>
         <v>3</v>
       </c>
-      <c r="AC103">
+      <c r="AO103">
         <f>'[1]10,000'!$D101</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AD103">
+      <c r="AP103">
         <f>'[1]100,000'!$E101</f>
         <v>3.6666666666666665</v>
       </c>
